--- a/Copy of SneakerPark Templates.xlsx
+++ b/Copy of SneakerPark Templates.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6537" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6535" uniqueCount="168">
   <si>
     <t>Business Term</t>
   </si>
@@ -439,6 +439,90 @@
   </si>
   <si>
     <t>im.items</t>
+  </si>
+  <si>
+    <t>shoetype</t>
+  </si>
+  <si>
+    <t>The type of the shoes</t>
+  </si>
+  <si>
+    <t>Sandals or Flip Flops</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>The brand of the shoes</t>
+  </si>
+  <si>
+    <t>UnderArmor</t>
+  </si>
+  <si>
+    <t>The color of the shoes</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>character varying(1)</t>
+  </si>
+  <si>
+    <t>The gender the shoes are designed for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F </t>
+  </si>
+  <si>
+    <t>character varying(4)</t>
+  </si>
+  <si>
+    <t>Size of the shoes</t>
+  </si>
+  <si>
+    <t>Condition of the shoes</t>
+  </si>
+  <si>
+    <t>Used</t>
+  </si>
+  <si>
+    <t>listingprice</t>
+  </si>
+  <si>
+    <t>numeric(8,2)</t>
+  </si>
+  <si>
+    <t>Price set by the seller</t>
+  </si>
+  <si>
+    <t>listingtype</t>
+  </si>
+  <si>
+    <t>character varying(20)</t>
+  </si>
+  <si>
+    <t>Type of the listing</t>
+  </si>
+  <si>
+    <t>Auction</t>
+  </si>
+  <si>
+    <t>listingcreatedate</t>
+  </si>
+  <si>
+    <t>The date at which the listing is created</t>
+  </si>
+  <si>
+    <t>2020-10-06</t>
+  </si>
+  <si>
+    <t>listingenddate</t>
+  </si>
+  <si>
+    <t>The date at which the listing will end</t>
+  </si>
+  <si>
+    <t>2020-11-17</t>
   </si>
 </sst>
 </file>
@@ -1938,412 +2022,412 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
-      <c r="A26" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="J26" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="K26" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L26" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="M26" s="14" t="s">
+      <c r="A26" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="M26" s="13" t="s">
         <v>61</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
-      <c r="A27" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="J27" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="K27" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="L27" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="M27" s="16" t="s">
+      <c r="A27" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="M27" s="13" t="s">
         <v>61</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
-      <c r="A28" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="J28" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="K28" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L28" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="M28" s="14" t="s">
+      <c r="A28" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="M28" s="13" t="s">
         <v>61</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
-      <c r="A29" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="I29" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="J29" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="K29" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="L29" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="M29" s="16" t="s">
+      <c r="A29" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="M29" s="13" t="s">
         <v>61</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
-      <c r="A30" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="J30" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="K30" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L30" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="M30" s="14" t="s">
+      <c r="A30" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I30" s="12">
+        <v>12</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="M30" s="13" t="s">
         <v>61</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
-      <c r="A31" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="I31" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="J31" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="K31" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="L31" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="M31" s="16" t="s">
+      <c r="A31" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="M31" s="13" t="s">
         <v>61</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
-      <c r="A32" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="J32" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="K32" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L32" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="M32" s="14" t="s">
+      <c r="A32" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I32" s="12">
+        <v>52</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="M32" s="13" t="s">
         <v>61</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
-      <c r="A33" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="H33" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="I33" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="J33" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="K33" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="L33" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="M33" s="16" t="s">
+      <c r="A33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="M33" s="13" t="s">
         <v>61</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
-      <c r="A34" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G34" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H34" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="I34" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="J34" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="K34" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L34" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="M34" s="14" t="s">
+      <c r="A34" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="M34" s="13" t="s">
         <v>61</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
-      <c r="A35" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="H35" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="I35" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="J35" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="K35" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="L35" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="M35" s="16" t="s">
+      <c r="A35" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="M35" s="13" t="s">
         <v>61</v>
       </c>
     </row>

--- a/Copy of SneakerPark Templates.xlsx
+++ b/Copy of SneakerPark Templates.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6535" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6531" uniqueCount="179">
   <si>
     <t>Business Term</t>
   </si>
@@ -524,6 +524,39 @@
   <si>
     <t>2020-11-17</t>
   </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Order Processing System</t>
+  </si>
+  <si>
+    <t>orderitems</t>
+  </si>
+  <si>
+    <t>The unique ID for each order</t>
+  </si>
+  <si>
+    <t>The unique ID for the listing that associates to this order</t>
+  </si>
+  <si>
+    <t>li.listings</t>
+  </si>
+  <si>
+    <t>li.listings.listingid</t>
+  </si>
+  <si>
+    <t>listingsoldprice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numeric(8,2) </t>
+  </si>
+  <si>
+    <t>The price at which the listing was sold</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
 </sst>
 </file>
 
@@ -2432,166 +2465,166 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
-      <c r="A36" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H36" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="J36" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="K36" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L36" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="M36" s="14" t="s">
-        <v>61</v>
+      <c r="A36" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I36" s="12">
+        <v>29626</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
-      <c r="A37" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="H37" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="I37" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="J37" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="K37" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="L37" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="M37" s="16" t="s">
-        <v>61</v>
+      <c r="A37" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I37" s="12">
+        <v>998839</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
-      <c r="A38" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H38" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="I38" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="J38" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="K38" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L38" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="M38" s="14" t="s">
+      <c r="A38" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I38" s="12">
+        <v>45</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L38" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="M38" s="13" t="s">
         <v>61</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
-      <c r="A39" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G39" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="H39" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="I39" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="J39" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="K39" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="L39" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="M39" s="16" t="s">
+      <c r="A39" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I39" s="12">
+        <v>45</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L39" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="M39" s="13" t="s">
         <v>61</v>
       </c>
     </row>

--- a/Copy of SneakerPark Templates.xlsx
+++ b/Copy of SneakerPark Templates.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="242">
   <si>
     <t>Business Term</t>
   </si>
@@ -643,6 +643,9 @@
 </t>
   </si>
   <si>
+    <t>ordershipments</t>
+  </si>
+  <si>
     <t>shipmentid</t>
   </si>
   <si>
@@ -680,6 +683,69 @@
   </si>
   <si>
     <t>2020-11-09</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>creditcards</t>
+  </si>
+  <si>
+    <t>Unique identifier for the credit card</t>
+  </si>
+  <si>
+    <t>creditcardnumber</t>
+  </si>
+  <si>
+    <t>Credit card number</t>
+  </si>
+  <si>
+    <t>creditcardexpirationdate</t>
+  </si>
+  <si>
+    <t>2023-11-01</t>
+  </si>
+  <si>
+    <t>Associated user to the credit card</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>A unique identifier for each user</t>
+  </si>
+  <si>
+    <t>First name of the user</t>
+  </si>
+  <si>
+    <t>Emerson</t>
+  </si>
+  <si>
+    <t>Last name of the user</t>
+  </si>
+  <si>
+    <t>Wire</t>
+  </si>
+  <si>
+    <t>Email of the user</t>
+  </si>
+  <si>
+    <t>emerson.wire@netscape.com</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>Address of the user</t>
+  </si>
+  <si>
+    <t>2 Harris PIace</t>
+  </si>
+  <si>
+    <t>zipcode</t>
+  </si>
+  <si>
+    <t>Zip code of the user</t>
   </si>
 </sst>
 </file>
@@ -1135,7 +1201,7 @@
     <col min="1" max="1" style="5" width="17.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="5" width="29.14785714285714" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="5" width="24.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="23.433571428571426" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="5" width="27.719285714285714" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="5" width="12.147857142857141" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="5" width="10.147857142857141" customWidth="1" bestFit="1"/>
@@ -2975,10 +3041,10 @@
         <v>168</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>58</v>
@@ -2990,7 +3056,7 @@
         <v>22</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I49" s="12">
         <v>797095</v>
@@ -3012,7 +3078,7 @@
         <v>168</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>80</v>
@@ -3027,7 +3093,7 @@
         <v>22</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I50" s="12">
         <v>427</v>
@@ -3053,10 +3119,10 @@
         <v>168</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>65</v>
@@ -3068,10 +3134,10 @@
         <v>60</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>60</v>
@@ -3094,13 +3160,13 @@
         <v>168</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>60</v>
@@ -3109,10 +3175,10 @@
         <v>60</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>60</v>
@@ -3131,10 +3197,10 @@
         <v>168</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>127</v>
@@ -3146,10 +3212,10 @@
         <v>60</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>60</v>
@@ -3161,154 +3227,386 @@
       <c r="M53" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
+      <c r="A54" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I54" s="12">
+        <v>9467</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L54" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="M54" s="13" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
+      <c r="A55" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I55" s="12">
+        <v>99658816711200</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
+      <c r="A56" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
+      <c r="A57" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="I57" s="12">
+        <v>96342</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
+      <c r="A58" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I58" s="12">
+        <v>80527</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L58" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="M58" s="13" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
+      <c r="A59" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
+      <c r="A60" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
+      <c r="A61" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
+      <c r="A62" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
+      <c r="A63" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I63" s="12">
+        <v>13835</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
       <c r="A64" s="4"/>

--- a/Copy of SneakerPark Templates.xlsx
+++ b/Copy of SneakerPark Templates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Data Dictionary"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="243">
   <si>
     <t>Business Term</t>
   </si>
@@ -132,7 +132,10 @@
     <t>Data Steward</t>
   </si>
   <si>
-    <t>Rental Properties</t>
+    <t>customerservicerequests</t>
+  </si>
+  <si>
+    <t>Customer Service</t>
   </si>
   <si>
     <t>Medium</t>
@@ -147,6 +150,39 @@
     <t>John Smith</t>
   </si>
   <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>listings</t>
+  </si>
+  <si>
+    <t>Listings</t>
+  </si>
+  <si>
+    <t>orderitems</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>ordershipments</t>
+  </si>
+  <si>
+    <t>creditcards</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
     <t>Entity</t>
   </si>
   <si>
@@ -183,15 +219,9 @@
     <t>Foreign Key Column</t>
   </si>
   <si>
-    <t>Customer Service</t>
-  </si>
-  <si>
     <t>Customer Service System</t>
   </si>
   <si>
-    <t>customerservicerequests</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -297,9 +327,6 @@
     <t>Inventory Management System</t>
   </si>
   <si>
-    <t>items</t>
-  </si>
-  <si>
     <t>itemid</t>
   </si>
   <si>
@@ -417,9 +444,6 @@
     <t>Listing System</t>
   </si>
   <si>
-    <t>listings</t>
-  </si>
-  <si>
     <t>listingid</t>
   </si>
   <si>
@@ -522,15 +546,9 @@
     <t>2020-11-17</t>
   </si>
   <si>
-    <t>Order</t>
-  </si>
-  <si>
     <t>Order Processing System</t>
   </si>
   <si>
-    <t>orderitems</t>
-  </si>
-  <si>
     <t>The unique ID for each order</t>
   </si>
   <si>
@@ -550,9 +568,6 @@
   </si>
   <si>
     <t>The price at which the listing was sold</t>
-  </si>
-  <si>
-    <t>orders</t>
   </si>
   <si>
     <t>Unique identifier for the orderid</t>
@@ -643,9 +658,6 @@
 </t>
   </si>
   <si>
-    <t>ordershipments</t>
-  </si>
-  <si>
     <t>shipmentid</t>
   </si>
   <si>
@@ -685,12 +697,6 @@
     <t>2020-11-09</t>
   </si>
   <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>creditcards</t>
-  </si>
-  <si>
     <t>Unique identifier for the credit card</t>
   </si>
   <si>
@@ -707,9 +713,6 @@
   </si>
   <si>
     <t>Associated user to the credit card</t>
-  </si>
-  <si>
-    <t>users</t>
   </si>
   <si>
     <t>A unique identifier for each user</t>
@@ -1194,7 +1197,7 @@
   </sheetPr>
   <dimension ref="A1:M496"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1215,60 +1218,60 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="23.25">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>22</v>
@@ -1277,7 +1280,7 @@
         <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="I2" s="12">
         <v>822950</v>
@@ -1286,26 +1289,26 @@
         <v>22</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>22</v>
@@ -1314,339 +1317,339 @@
         <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="I3" s="12">
         <v>3586</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I9" s="12">
         <v>12802</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>22</v>
@@ -1655,7 +1658,7 @@
         <v>22</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="I12" s="12">
         <v>2333</v>
@@ -1664,400 +1667,400 @@
         <v>22</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
       <c r="A14" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="I14" s="12">
         <v>99900</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
       <c r="A15" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
       <c r="A16" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
       <c r="A17" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
       <c r="A18" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="I18" s="12">
         <v>14</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
       <c r="A19" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
       <c r="A20" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.25">
       <c r="A21" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25">
       <c r="A22" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.25">
       <c r="A23" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>22</v>
@@ -2066,7 +2069,7 @@
         <v>22</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="I23" s="12">
         <v>922399</v>
@@ -2075,26 +2078,26 @@
         <v>22</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="20.25">
       <c r="A24" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>22</v>
@@ -2103,39 +2106,39 @@
         <v>22</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="I24" s="12">
         <v>25516</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="20.25">
       <c r="A25" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>22</v>
@@ -2144,418 +2147,418 @@
         <v>22</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="I25" s="12">
         <v>509</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="20.25">
       <c r="A26" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="20.25">
       <c r="A27" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="20.25">
       <c r="A28" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="20.25">
       <c r="A29" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="20.25">
       <c r="A30" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="I30" s="12">
         <v>12</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="20.25">
       <c r="A31" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="20.25">
       <c r="A32" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="I32" s="12">
         <v>52</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="20.25">
       <c r="A33" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="20.25">
       <c r="A34" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="20.25">
       <c r="A35" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="20.25">
       <c r="A36" s="2" t="s">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I36" s="12">
         <v>29626</v>
@@ -2567,105 +2570,105 @@
         <v>22</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="20.25">
       <c r="A37" s="2" t="s">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I37" s="12">
         <v>998839</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="20.25">
       <c r="A38" s="2" t="s">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="I38" s="12">
         <v>45</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="20.25">
       <c r="A39" s="2" t="s">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>177</v>
+        <v>49</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>22</v>
@@ -2674,7 +2677,7 @@
         <v>22</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="I39" s="12">
         <v>29692</v>
@@ -2683,26 +2686,26 @@
         <v>22</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="20.25">
       <c r="A40" s="2" t="s">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>177</v>
+        <v>49</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>22</v>
@@ -2711,13 +2714,13 @@
         <v>22</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="I40" s="12">
         <v>7708</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>22</v>
@@ -2727,19 +2730,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="20.25">
       <c r="A41" s="2" t="s">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>177</v>
+        <v>49</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>22</v>
@@ -2748,306 +2751,306 @@
         <v>22</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="I41" s="12">
         <v>79220</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="20.25">
       <c r="A42" s="2" t="s">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>177</v>
+        <v>49</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="I42" s="12">
         <v>15.8</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L42" s="13" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="M42" s="13" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="20.25">
       <c r="A43" s="2" t="s">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>177</v>
+        <v>49</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="I43" s="12">
         <v>9</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L43" s="13" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="M43" s="13" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="20.25">
       <c r="A44" s="2" t="s">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>177</v>
+        <v>49</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="I44" s="12">
         <v>0</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="20.25">
       <c r="A45" s="2" t="s">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>177</v>
+        <v>49</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="20.25">
       <c r="A46" s="2" t="s">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>177</v>
+        <v>49</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
       <c r="A47" s="2" t="s">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>177</v>
+        <v>49</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
       <c r="A48" s="2" t="s">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>177</v>
+        <v>49</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
       <c r="A49" s="2" t="s">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>207</v>
+        <v>50</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>22</v>
@@ -3056,7 +3059,7 @@
         <v>22</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="I49" s="12">
         <v>797095</v>
@@ -3065,26 +3068,26 @@
         <v>22</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
       <c r="A50" s="2" t="s">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>207</v>
+        <v>50</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>22</v>
@@ -3093,154 +3096,154 @@
         <v>22</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="I50" s="12">
         <v>427</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
       <c r="A51" s="2" t="s">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>207</v>
+        <v>50</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L51" s="13" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="M51" s="13" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
       <c r="A52" s="2" t="s">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>207</v>
+        <v>50</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
       <c r="A53" s="2" t="s">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>207</v>
+        <v>50</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
       <c r="A54" s="2" t="s">
-        <v>221</v>
+        <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>222</v>
+        <v>51</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>22</v>
@@ -3249,7 +3252,7 @@
         <v>22</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="I54" s="12">
         <v>9467</v>
@@ -3258,104 +3261,104 @@
         <v>22</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L54" s="13" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="M54" s="13" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
       <c r="A55" s="2" t="s">
-        <v>221</v>
+        <v>52</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>222</v>
+        <v>51</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="I55" s="12">
         <v>99658816711200</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
       <c r="A56" s="2" t="s">
-        <v>221</v>
+        <v>52</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>222</v>
+        <v>51</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
       <c r="A57" s="2" t="s">
-        <v>221</v>
+        <v>52</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>222</v>
+        <v>51</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>22</v>
@@ -3364,39 +3367,39 @@
         <v>22</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I57" s="12">
         <v>96342</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
       <c r="A58" s="2" t="s">
-        <v>221</v>
+        <v>52</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>229</v>
+        <v>53</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>22</v>
@@ -3405,7 +3408,7 @@
         <v>22</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I58" s="12">
         <v>80527</v>
@@ -3414,196 +3417,196 @@
         <v>22</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L58" s="13" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="M58" s="13" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
       <c r="A59" s="2" t="s">
-        <v>221</v>
+        <v>52</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>229</v>
+        <v>53</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
       <c r="A60" s="2" t="s">
-        <v>221</v>
+        <v>52</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>229</v>
+        <v>53</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
       <c r="A61" s="2" t="s">
-        <v>221</v>
+        <v>52</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>229</v>
+        <v>53</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
       <c r="A62" s="2" t="s">
-        <v>221</v>
+        <v>52</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>229</v>
+        <v>53</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
       <c r="A63" s="2" t="s">
-        <v>221</v>
+        <v>52</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>229</v>
+        <v>53</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I63" s="12">
         <v>13835</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -10115,12 +10118,12 @@
   </sheetPr>
   <dimension ref="A1:F500"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="23.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="22.433571428571426" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="5" width="20.290714285714284" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="5" width="26.433571428571426" customWidth="1" bestFit="1"/>
@@ -10149,79 +10152,163 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="F3" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="A4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="A6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="A7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="A8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="A9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="4"/>

--- a/Copy of SneakerPark Templates.xlsx
+++ b/Copy of SneakerPark Templates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Data Dictionary"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="264">
   <si>
     <t>Business Term</t>
   </si>
@@ -107,8 +107,7 @@
     <t>ApartmentID = 233</t>
   </si>
   <si>
-    <t xml:space="preserve">This field needs to be set to NOT NULL to avoid missing data. 
-</t>
+    <t>This field needs to be set to NOT NULL to avoid missing data. &amp;#xA;</t>
   </si>
   <si>
     <t>All apartments must be associated with a building.</t>
@@ -117,6 +116,72 @@
     <t>Number of orphan apartment records (i.e. apartments that are not linked to a building)</t>
   </si>
   <si>
+    <t>Emal</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>False Data</t>
+  </si>
+  <si>
+    <t>Some records have fake emails registered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">natalie.vitiello@fakeemail.com </t>
+  </si>
+  <si>
+    <t>Users should not register with fake emails</t>
+  </si>
+  <si>
+    <t>All email domain should be checked for validity</t>
+  </si>
+  <si>
+    <t>Number of fake emails ( emails with invalid domains )</t>
+  </si>
+  <si>
+    <t>Totalamount</t>
+  </si>
+  <si>
+    <t>Orders</t>
+  </si>
+  <si>
+    <t>Bad Data</t>
+  </si>
+  <si>
+    <t>Validity</t>
+  </si>
+  <si>
+    <t>Some records have total amount set to zero</t>
+  </si>
+  <si>
+    <t>Total amount of an order should not be zero</t>
+  </si>
+  <si>
+    <t>Number of emails with invalid domains</t>
+  </si>
+  <si>
+    <t>shippingaddress</t>
+  </si>
+  <si>
+    <t>Completeness</t>
+  </si>
+  <si>
+    <t>Some records have no value for the shipping address</t>
+  </si>
+  <si>
+    <t>orderid = 29626</t>
+  </si>
+  <si>
+    <t>Address for an order should not be empty</t>
+  </si>
+  <si>
+    <t>All orders should have address associated to them</t>
+  </si>
+  <si>
+    <t>Number of records with empty shipping address</t>
+  </si>
+  <si>
     <t>Data Domain</t>
   </si>
   <si>
@@ -249,7 +314,7 @@
     <t>character varying(50)</t>
   </si>
   <si>
-    <t>This is user's first name</t>
+    <t>This is user&amp;apos;s first name</t>
   </si>
   <si>
     <t>Bobby</t>
@@ -258,7 +323,7 @@
     <t>lastname</t>
   </si>
   <si>
-    <t>This is user's last name</t>
+    <t>This is user&amp;apos;s last name</t>
   </si>
   <si>
     <t>Vamderheydem</t>
@@ -339,7 +404,7 @@
     <t xml:space="preserve">character varying(100) </t>
   </si>
   <si>
-    <t>This is the item's name</t>
+    <t>This is the item&amp;apos;s name</t>
   </si>
   <si>
     <t>Gisela</t>
@@ -597,9 +662,6 @@
     <t>Cost of shipping the order</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>taxratepercent</t>
   </si>
   <si>
@@ -618,9 +680,6 @@
     <t>Total amount for the order</t>
   </si>
   <si>
-    <t>shippingaddress</t>
-  </si>
-  <si>
     <t>Address for the order to be shipped to</t>
   </si>
   <si>
@@ -654,8 +713,7 @@
     <t>Status of the order delivery</t>
   </si>
   <si>
-    <t xml:space="preserve">Shipped
-</t>
+    <t>Shipped&amp;#xA;</t>
   </si>
   <si>
     <t>shipmentid</t>
@@ -695,6 +753,9 @@
   </si>
   <si>
     <t>2020-11-09</t>
+  </si>
+  <si>
+    <t>User Management System</t>
   </si>
   <si>
     <t>Unique identifier for the credit card</t>
@@ -843,7 +904,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -866,6 +927,9 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -876,12 +940,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
@@ -1209,7 +1267,7 @@
     <col min="6" max="6" style="5" width="12.147857142857141" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="5" width="10.147857142857141" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="5" width="53.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="16" width="34.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="15" width="34.86214285714286" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="5" width="15.576428571428572" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="5" width="15.005" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="5" width="21.576428571428572" customWidth="1" bestFit="1"/>
@@ -1218,60 +1276,60 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="23.25">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>61</v>
+      <c r="I1" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>22</v>
@@ -1280,35 +1338,35 @@
         <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" s="12">
+        <v>91</v>
+      </c>
+      <c r="I2" s="8">
         <v>822950</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>22</v>
@@ -1317,339 +1375,339 @@
         <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" s="12">
+        <v>94</v>
+      </c>
+      <c r="I3" s="8">
         <v>3586</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="2" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>77</v>
+        <v>98</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>80</v>
+        <v>101</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>83</v>
+        <v>104</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>86</v>
+        <v>107</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>89</v>
+        <v>110</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I9" s="12">
+        <v>113</v>
+      </c>
+      <c r="I9" s="8">
         <v>12802</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>96</v>
+        <v>117</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="2" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>99</v>
+        <v>120</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="2" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>22</v>
@@ -1658,409 +1716,409 @@
         <v>22</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I12" s="12">
+        <v>125</v>
+      </c>
+      <c r="I12" s="8">
         <v>2333</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="2" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>107</v>
+        <v>128</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
       <c r="A14" s="2" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I14" s="12">
+        <v>131</v>
+      </c>
+      <c r="I14" s="8">
         <v>99900</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
       <c r="A15" s="2" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>113</v>
+        <v>134</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
       <c r="A16" s="2" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>116</v>
+        <v>137</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
       <c r="A17" s="2" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>120</v>
+        <v>141</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
       <c r="A18" s="2" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I18" s="12">
+        <v>145</v>
+      </c>
+      <c r="I18" s="8">
         <v>14</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
       <c r="A19" s="2" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>127</v>
+        <v>148</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
       <c r="A20" s="2" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>131</v>
+        <v>152</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.25">
       <c r="A21" s="2" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>134</v>
+        <v>155</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25">
       <c r="A22" s="2" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>138</v>
+        <v>159</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.25">
       <c r="A23" s="2" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>22</v>
@@ -2069,35 +2127,35 @@
         <v>22</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I23" s="12">
+        <v>164</v>
+      </c>
+      <c r="I23" s="8">
         <v>922399</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="20.25">
       <c r="A24" s="2" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>22</v>
@@ -2106,39 +2164,39 @@
         <v>22</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="I24" s="12">
+        <v>165</v>
+      </c>
+      <c r="I24" s="8">
         <v>25516</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="20.25">
       <c r="A25" s="2" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>22</v>
@@ -2147,420 +2205,420 @@
         <v>22</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="I25" s="12">
+        <v>167</v>
+      </c>
+      <c r="I25" s="8">
         <v>509</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="20.25">
       <c r="A26" s="2" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>149</v>
+        <v>170</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="20.25">
       <c r="A27" s="2" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>152</v>
+        <v>173</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>174</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="20.25">
       <c r="A28" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>120</v>
+        <v>175</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="20.25">
       <c r="A29" s="2" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>157</v>
+        <v>178</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>179</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="20.25">
       <c r="A30" s="2" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="I30" s="12">
+        <v>181</v>
+      </c>
+      <c r="I30" s="8">
         <v>12</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="20.25">
       <c r="A31" s="2" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>161</v>
+        <v>182</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>183</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="20.25">
       <c r="A32" s="2" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="I32" s="12">
+        <v>186</v>
+      </c>
+      <c r="I32" s="8">
         <v>52</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="20.25">
       <c r="A33" s="2" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>168</v>
+        <v>189</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="20.25">
       <c r="A34" s="2" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>171</v>
+        <v>192</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="20.25">
       <c r="A35" s="2" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>174</v>
+        <v>195</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="20.25">
       <c r="A36" s="2" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="I36" s="12">
+        <v>198</v>
+      </c>
+      <c r="I36" s="8">
         <v>29626</v>
       </c>
       <c r="J36" s="2" t="s">
@@ -2570,105 +2628,105 @@
         <v>22</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="20.25">
       <c r="A37" s="2" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="I37" s="12">
+        <v>199</v>
+      </c>
+      <c r="I37" s="8">
         <v>998839</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="20.25">
       <c r="A38" s="2" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="I38" s="12">
+        <v>204</v>
+      </c>
+      <c r="I38" s="8">
         <v>45</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="20.25">
       <c r="A39" s="2" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>22</v>
@@ -2677,35 +2735,35 @@
         <v>22</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I39" s="12">
+        <v>205</v>
+      </c>
+      <c r="I39" s="8">
         <v>29692</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="20.25">
       <c r="A40" s="2" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>22</v>
@@ -2714,13 +2772,13 @@
         <v>22</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="I40" s="12">
+        <v>207</v>
+      </c>
+      <c r="I40" s="8">
         <v>7708</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>22</v>
@@ -2730,19 +2788,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="20.25">
       <c r="A41" s="2" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>22</v>
@@ -2751,306 +2809,298 @@
         <v>22</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="I41" s="12">
+        <v>207</v>
+      </c>
+      <c r="I41" s="8">
         <v>79220</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="20.25">
       <c r="A42" s="2" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="I42" s="12">
+        <v>213</v>
+      </c>
+      <c r="I42" s="8">
         <v>15.8</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L42" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="M42" s="13" t="s">
-        <v>192</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="20.25">
       <c r="A43" s="2" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="I43" s="12">
+        <v>216</v>
+      </c>
+      <c r="I43" s="8">
         <v>9</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L43" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="M43" s="13" t="s">
-        <v>192</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="20.25">
       <c r="A44" s="2" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I44" s="12">
+        <v>219</v>
+      </c>
+      <c r="I44" s="8">
         <v>0</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="20.25">
       <c r="A45" s="2" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>199</v>
+        <v>47</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="I45" s="12" t="s">
-        <v>201</v>
+        <v>220</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>221</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="20.25">
       <c r="A46" s="2" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="I46" s="12" t="s">
-        <v>204</v>
+        <v>223</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="20.25">
       <c r="A47" s="2" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="I47" s="12" t="s">
-        <v>208</v>
+        <v>227</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>228</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="20.25">
       <c r="A48" s="2" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="I48" s="12" t="s">
-        <v>211</v>
+        <v>230</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>231</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="20.25">
       <c r="A49" s="2" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>22</v>
@@ -3059,35 +3109,35 @@
         <v>22</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I49" s="12">
+        <v>233</v>
+      </c>
+      <c r="I49" s="8">
         <v>797095</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="20.25">
       <c r="A50" s="2" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>22</v>
@@ -3096,154 +3146,150 @@
         <v>22</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="I50" s="12">
+        <v>234</v>
+      </c>
+      <c r="I50" s="8">
         <v>427</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
+        <v>115</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="20.25">
       <c r="A51" s="2" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="20.25">
+      <c r="A52" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H51" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="I51" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L51" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="M51" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="19.5">
-      <c r="A52" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="B52" s="2" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="I52" s="12" t="s">
-        <v>221</v>
+        <v>240</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>241</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="20.25">
       <c r="A53" s="2" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="I53" s="12" t="s">
-        <v>224</v>
+        <v>243</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="20.25">
       <c r="A54" s="2" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>175</v>
+        <v>245</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>22</v>
@@ -3252,113 +3298,109 @@
         <v>22</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="I54" s="12">
+        <v>246</v>
+      </c>
+      <c r="I54" s="8">
         <v>9467</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L54" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="M54" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="19.5">
+        <v>92</v>
+      </c>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="20.25">
       <c r="A55" s="2" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>175</v>
+        <v>245</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="I55" s="12">
+        <v>248</v>
+      </c>
+      <c r="I55" s="8">
         <v>99658816711200</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="20.25">
       <c r="A56" s="2" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>175</v>
+        <v>245</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="I56" s="12" t="s">
-        <v>229</v>
+        <v>248</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>250</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="20.25">
       <c r="A57" s="2" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>175</v>
+        <v>245</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>22</v>
@@ -3367,39 +3409,39 @@
         <v>22</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="I57" s="12">
+        <v>251</v>
+      </c>
+      <c r="I57" s="8">
         <v>96342</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="19.5">
+        <v>93</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="20.25">
       <c r="A58" s="2" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>175</v>
+        <v>245</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>22</v>
@@ -3408,210 +3450,206 @@
         <v>22</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="I58" s="12">
+        <v>252</v>
+      </c>
+      <c r="I58" s="8">
         <v>80527</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L58" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="M58" s="13" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="19.5">
+        <v>92</v>
+      </c>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="20.25">
       <c r="A59" s="2" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>175</v>
+        <v>245</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="I59" s="12" t="s">
-        <v>233</v>
+        <v>253</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>254</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="20.25">
       <c r="A60" s="2" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>175</v>
+        <v>245</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="I60" s="12" t="s">
-        <v>235</v>
+        <v>255</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>256</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="20.25">
       <c r="A61" s="2" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>175</v>
+        <v>245</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="I61" s="12" t="s">
-        <v>237</v>
+        <v>257</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>258</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="20.25">
       <c r="A62" s="2" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>175</v>
+        <v>245</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="I62" s="12" t="s">
-        <v>240</v>
+        <v>260</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>261</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="20.25">
       <c r="A63" s="2" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>175</v>
+        <v>245</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="I63" s="12">
+        <v>263</v>
+      </c>
+      <c r="I63" s="8">
         <v>13835</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="20.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -3620,13 +3658,13 @@
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
-      <c r="I64" s="14"/>
+      <c r="I64" s="13"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="20.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -3635,13 +3673,13 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
-      <c r="I65" s="15"/>
+      <c r="I65" s="14"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="20.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -3650,13 +3688,13 @@
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
-      <c r="I66" s="14"/>
+      <c r="I66" s="13"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="20.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -3665,7 +3703,7 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
-      <c r="I67" s="15"/>
+      <c r="I67" s="14"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
@@ -3680,7 +3718,7 @@
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
-      <c r="I68" s="14"/>
+      <c r="I68" s="13"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
@@ -3695,7 +3733,7 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
-      <c r="I69" s="15"/>
+      <c r="I69" s="14"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -3710,7 +3748,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
-      <c r="I70" s="14"/>
+      <c r="I70" s="13"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
@@ -3725,7 +3763,7 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
-      <c r="I71" s="15"/>
+      <c r="I71" s="14"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
@@ -3740,7 +3778,7 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
-      <c r="I72" s="14"/>
+      <c r="I72" s="13"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
@@ -3755,7 +3793,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
-      <c r="I73" s="15"/>
+      <c r="I73" s="14"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
@@ -3770,7 +3808,7 @@
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
-      <c r="I74" s="14"/>
+      <c r="I74" s="13"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
@@ -3785,7 +3823,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
-      <c r="I75" s="15"/>
+      <c r="I75" s="14"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
@@ -3800,7 +3838,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
-      <c r="I76" s="14"/>
+      <c r="I76" s="13"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
@@ -3815,7 +3853,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
-      <c r="I77" s="15"/>
+      <c r="I77" s="14"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
@@ -3830,7 +3868,7 @@
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
-      <c r="I78" s="14"/>
+      <c r="I78" s="13"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
@@ -3845,7 +3883,7 @@
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
-      <c r="I79" s="15"/>
+      <c r="I79" s="14"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
@@ -3860,7 +3898,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
-      <c r="I80" s="14"/>
+      <c r="I80" s="13"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
@@ -3875,7 +3913,7 @@
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
-      <c r="I81" s="15"/>
+      <c r="I81" s="14"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
@@ -3890,7 +3928,7 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
-      <c r="I82" s="14"/>
+      <c r="I82" s="13"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
@@ -3905,7 +3943,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
-      <c r="I83" s="15"/>
+      <c r="I83" s="14"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
@@ -3920,7 +3958,7 @@
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
-      <c r="I84" s="14"/>
+      <c r="I84" s="13"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
@@ -3935,7 +3973,7 @@
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
-      <c r="I85" s="15"/>
+      <c r="I85" s="14"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
@@ -3950,7 +3988,7 @@
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
-      <c r="I86" s="14"/>
+      <c r="I86" s="13"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
@@ -3965,7 +4003,7 @@
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
-      <c r="I87" s="15"/>
+      <c r="I87" s="14"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
@@ -3980,7 +4018,7 @@
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
-      <c r="I88" s="14"/>
+      <c r="I88" s="13"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
@@ -3995,7 +4033,7 @@
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
-      <c r="I89" s="15"/>
+      <c r="I89" s="14"/>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
@@ -4010,7 +4048,7 @@
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
-      <c r="I90" s="14"/>
+      <c r="I90" s="13"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
@@ -4025,7 +4063,7 @@
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
-      <c r="I91" s="15"/>
+      <c r="I91" s="14"/>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
@@ -4040,7 +4078,7 @@
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
-      <c r="I92" s="14"/>
+      <c r="I92" s="13"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
@@ -4055,7 +4093,7 @@
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
-      <c r="I93" s="15"/>
+      <c r="I93" s="14"/>
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
@@ -4070,7 +4108,7 @@
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
-      <c r="I94" s="14"/>
+      <c r="I94" s="13"/>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
@@ -4085,7 +4123,7 @@
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
-      <c r="I95" s="15"/>
+      <c r="I95" s="14"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
@@ -4100,7 +4138,7 @@
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
-      <c r="I96" s="14"/>
+      <c r="I96" s="13"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
       <c r="L96" s="4"/>
@@ -4115,7 +4153,7 @@
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
-      <c r="I97" s="15"/>
+      <c r="I97" s="14"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
@@ -4130,7 +4168,7 @@
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
-      <c r="I98" s="14"/>
+      <c r="I98" s="13"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
@@ -4145,7 +4183,7 @@
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
-      <c r="I99" s="15"/>
+      <c r="I99" s="14"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
@@ -4160,7 +4198,7 @@
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
-      <c r="I100" s="14"/>
+      <c r="I100" s="13"/>
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
@@ -4175,7 +4213,7 @@
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
-      <c r="I101" s="15"/>
+      <c r="I101" s="14"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
@@ -4190,7 +4228,7 @@
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
-      <c r="I102" s="14"/>
+      <c r="I102" s="13"/>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
@@ -4205,7 +4243,7 @@
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
-      <c r="I103" s="15"/>
+      <c r="I103" s="14"/>
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
@@ -4220,7 +4258,7 @@
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
-      <c r="I104" s="14"/>
+      <c r="I104" s="13"/>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
       <c r="L104" s="4"/>
@@ -4235,7 +4273,7 @@
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
-      <c r="I105" s="15"/>
+      <c r="I105" s="14"/>
       <c r="J105" s="3"/>
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
@@ -4250,7 +4288,7 @@
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
-      <c r="I106" s="14"/>
+      <c r="I106" s="13"/>
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
       <c r="L106" s="4"/>
@@ -4265,7 +4303,7 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
-      <c r="I107" s="15"/>
+      <c r="I107" s="14"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
@@ -4280,7 +4318,7 @@
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
-      <c r="I108" s="14"/>
+      <c r="I108" s="13"/>
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
       <c r="L108" s="4"/>
@@ -4295,7 +4333,7 @@
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
-      <c r="I109" s="15"/>
+      <c r="I109" s="14"/>
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
@@ -4310,7 +4348,7 @@
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
-      <c r="I110" s="14"/>
+      <c r="I110" s="13"/>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
@@ -4325,7 +4363,7 @@
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
-      <c r="I111" s="15"/>
+      <c r="I111" s="14"/>
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
@@ -4340,7 +4378,7 @@
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
-      <c r="I112" s="14"/>
+      <c r="I112" s="13"/>
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
@@ -4355,7 +4393,7 @@
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
-      <c r="I113" s="15"/>
+      <c r="I113" s="14"/>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
@@ -4370,7 +4408,7 @@
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
-      <c r="I114" s="14"/>
+      <c r="I114" s="13"/>
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
@@ -4385,7 +4423,7 @@
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
-      <c r="I115" s="15"/>
+      <c r="I115" s="14"/>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
@@ -4400,7 +4438,7 @@
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
-      <c r="I116" s="14"/>
+      <c r="I116" s="13"/>
       <c r="J116" s="4"/>
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
@@ -4415,7 +4453,7 @@
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
-      <c r="I117" s="15"/>
+      <c r="I117" s="14"/>
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
@@ -4430,7 +4468,7 @@
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
-      <c r="I118" s="14"/>
+      <c r="I118" s="13"/>
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
       <c r="L118" s="4"/>
@@ -4445,7 +4483,7 @@
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
-      <c r="I119" s="15"/>
+      <c r="I119" s="14"/>
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
@@ -4460,7 +4498,7 @@
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
-      <c r="I120" s="14"/>
+      <c r="I120" s="13"/>
       <c r="J120" s="4"/>
       <c r="K120" s="4"/>
       <c r="L120" s="4"/>
@@ -4475,7 +4513,7 @@
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
-      <c r="I121" s="15"/>
+      <c r="I121" s="14"/>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
@@ -4490,7 +4528,7 @@
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
-      <c r="I122" s="14"/>
+      <c r="I122" s="13"/>
       <c r="J122" s="4"/>
       <c r="K122" s="4"/>
       <c r="L122" s="4"/>
@@ -4505,7 +4543,7 @@
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
-      <c r="I123" s="15"/>
+      <c r="I123" s="14"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
@@ -4520,7 +4558,7 @@
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
-      <c r="I124" s="14"/>
+      <c r="I124" s="13"/>
       <c r="J124" s="4"/>
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
@@ -4535,7 +4573,7 @@
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
-      <c r="I125" s="15"/>
+      <c r="I125" s="14"/>
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
@@ -4550,7 +4588,7 @@
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
-      <c r="I126" s="14"/>
+      <c r="I126" s="13"/>
       <c r="J126" s="4"/>
       <c r="K126" s="4"/>
       <c r="L126" s="4"/>
@@ -4565,7 +4603,7 @@
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
-      <c r="I127" s="15"/>
+      <c r="I127" s="14"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
@@ -4580,7 +4618,7 @@
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
-      <c r="I128" s="14"/>
+      <c r="I128" s="13"/>
       <c r="J128" s="4"/>
       <c r="K128" s="4"/>
       <c r="L128" s="4"/>
@@ -4595,7 +4633,7 @@
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
-      <c r="I129" s="15"/>
+      <c r="I129" s="14"/>
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
@@ -4610,7 +4648,7 @@
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
       <c r="H130" s="4"/>
-      <c r="I130" s="14"/>
+      <c r="I130" s="13"/>
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
       <c r="L130" s="4"/>
@@ -4625,7 +4663,7 @@
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
-      <c r="I131" s="15"/>
+      <c r="I131" s="14"/>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
@@ -4640,7 +4678,7 @@
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
-      <c r="I132" s="14"/>
+      <c r="I132" s="13"/>
       <c r="J132" s="4"/>
       <c r="K132" s="4"/>
       <c r="L132" s="4"/>
@@ -4655,7 +4693,7 @@
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
-      <c r="I133" s="15"/>
+      <c r="I133" s="14"/>
       <c r="J133" s="3"/>
       <c r="K133" s="3"/>
       <c r="L133" s="3"/>
@@ -4670,7 +4708,7 @@
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
-      <c r="I134" s="14"/>
+      <c r="I134" s="13"/>
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
       <c r="L134" s="4"/>
@@ -4685,7 +4723,7 @@
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
-      <c r="I135" s="15"/>
+      <c r="I135" s="14"/>
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
       <c r="L135" s="3"/>
@@ -4700,7 +4738,7 @@
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
       <c r="H136" s="4"/>
-      <c r="I136" s="14"/>
+      <c r="I136" s="13"/>
       <c r="J136" s="4"/>
       <c r="K136" s="4"/>
       <c r="L136" s="4"/>
@@ -4715,7 +4753,7 @@
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
-      <c r="I137" s="15"/>
+      <c r="I137" s="14"/>
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
@@ -4730,7 +4768,7 @@
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
       <c r="H138" s="4"/>
-      <c r="I138" s="14"/>
+      <c r="I138" s="13"/>
       <c r="J138" s="4"/>
       <c r="K138" s="4"/>
       <c r="L138" s="4"/>
@@ -4745,7 +4783,7 @@
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
-      <c r="I139" s="15"/>
+      <c r="I139" s="14"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
@@ -4760,7 +4798,7 @@
       <c r="F140" s="4"/>
       <c r="G140" s="4"/>
       <c r="H140" s="4"/>
-      <c r="I140" s="14"/>
+      <c r="I140" s="13"/>
       <c r="J140" s="4"/>
       <c r="K140" s="4"/>
       <c r="L140" s="4"/>
@@ -4775,7 +4813,7 @@
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
-      <c r="I141" s="15"/>
+      <c r="I141" s="14"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
@@ -4790,7 +4828,7 @@
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
       <c r="H142" s="4"/>
-      <c r="I142" s="14"/>
+      <c r="I142" s="13"/>
       <c r="J142" s="4"/>
       <c r="K142" s="4"/>
       <c r="L142" s="4"/>
@@ -4805,7 +4843,7 @@
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
-      <c r="I143" s="15"/>
+      <c r="I143" s="14"/>
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
       <c r="L143" s="3"/>
@@ -4820,7 +4858,7 @@
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
-      <c r="I144" s="14"/>
+      <c r="I144" s="13"/>
       <c r="J144" s="4"/>
       <c r="K144" s="4"/>
       <c r="L144" s="4"/>
@@ -4835,7 +4873,7 @@
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
-      <c r="I145" s="15"/>
+      <c r="I145" s="14"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
       <c r="L145" s="3"/>
@@ -4850,7 +4888,7 @@
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
       <c r="H146" s="4"/>
-      <c r="I146" s="14"/>
+      <c r="I146" s="13"/>
       <c r="J146" s="4"/>
       <c r="K146" s="4"/>
       <c r="L146" s="4"/>
@@ -4865,7 +4903,7 @@
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
-      <c r="I147" s="15"/>
+      <c r="I147" s="14"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
       <c r="L147" s="3"/>
@@ -4880,7 +4918,7 @@
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
       <c r="H148" s="4"/>
-      <c r="I148" s="14"/>
+      <c r="I148" s="13"/>
       <c r="J148" s="4"/>
       <c r="K148" s="4"/>
       <c r="L148" s="4"/>
@@ -4895,7 +4933,7 @@
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
-      <c r="I149" s="15"/>
+      <c r="I149" s="14"/>
       <c r="J149" s="3"/>
       <c r="K149" s="3"/>
       <c r="L149" s="3"/>
@@ -4910,7 +4948,7 @@
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
-      <c r="I150" s="14"/>
+      <c r="I150" s="13"/>
       <c r="J150" s="4"/>
       <c r="K150" s="4"/>
       <c r="L150" s="4"/>
@@ -4925,7 +4963,7 @@
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
-      <c r="I151" s="15"/>
+      <c r="I151" s="14"/>
       <c r="J151" s="3"/>
       <c r="K151" s="3"/>
       <c r="L151" s="3"/>
@@ -4940,7 +4978,7 @@
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
       <c r="H152" s="4"/>
-      <c r="I152" s="14"/>
+      <c r="I152" s="13"/>
       <c r="J152" s="4"/>
       <c r="K152" s="4"/>
       <c r="L152" s="4"/>
@@ -4955,7 +4993,7 @@
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
-      <c r="I153" s="15"/>
+      <c r="I153" s="14"/>
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
@@ -4970,7 +5008,7 @@
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
       <c r="H154" s="4"/>
-      <c r="I154" s="14"/>
+      <c r="I154" s="13"/>
       <c r="J154" s="4"/>
       <c r="K154" s="4"/>
       <c r="L154" s="4"/>
@@ -4985,7 +5023,7 @@
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
-      <c r="I155" s="15"/>
+      <c r="I155" s="14"/>
       <c r="J155" s="3"/>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
@@ -5000,7 +5038,7 @@
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
-      <c r="I156" s="14"/>
+      <c r="I156" s="13"/>
       <c r="J156" s="4"/>
       <c r="K156" s="4"/>
       <c r="L156" s="4"/>
@@ -5015,7 +5053,7 @@
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
-      <c r="I157" s="15"/>
+      <c r="I157" s="14"/>
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
@@ -5030,7 +5068,7 @@
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
       <c r="H158" s="4"/>
-      <c r="I158" s="14"/>
+      <c r="I158" s="13"/>
       <c r="J158" s="4"/>
       <c r="K158" s="4"/>
       <c r="L158" s="4"/>
@@ -5045,7 +5083,7 @@
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
-      <c r="I159" s="15"/>
+      <c r="I159" s="14"/>
       <c r="J159" s="3"/>
       <c r="K159" s="3"/>
       <c r="L159" s="3"/>
@@ -5060,7 +5098,7 @@
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
       <c r="H160" s="4"/>
-      <c r="I160" s="14"/>
+      <c r="I160" s="13"/>
       <c r="J160" s="4"/>
       <c r="K160" s="4"/>
       <c r="L160" s="4"/>
@@ -5075,7 +5113,7 @@
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
-      <c r="I161" s="15"/>
+      <c r="I161" s="14"/>
       <c r="J161" s="3"/>
       <c r="K161" s="3"/>
       <c r="L161" s="3"/>
@@ -5090,7 +5128,7 @@
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
       <c r="H162" s="4"/>
-      <c r="I162" s="14"/>
+      <c r="I162" s="13"/>
       <c r="J162" s="4"/>
       <c r="K162" s="4"/>
       <c r="L162" s="4"/>
@@ -5105,7 +5143,7 @@
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
-      <c r="I163" s="15"/>
+      <c r="I163" s="14"/>
       <c r="J163" s="3"/>
       <c r="K163" s="3"/>
       <c r="L163" s="3"/>
@@ -5120,7 +5158,7 @@
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
       <c r="H164" s="4"/>
-      <c r="I164" s="14"/>
+      <c r="I164" s="13"/>
       <c r="J164" s="4"/>
       <c r="K164" s="4"/>
       <c r="L164" s="4"/>
@@ -5135,7 +5173,7 @@
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
-      <c r="I165" s="15"/>
+      <c r="I165" s="14"/>
       <c r="J165" s="3"/>
       <c r="K165" s="3"/>
       <c r="L165" s="3"/>
@@ -5150,7 +5188,7 @@
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
       <c r="H166" s="4"/>
-      <c r="I166" s="14"/>
+      <c r="I166" s="13"/>
       <c r="J166" s="4"/>
       <c r="K166" s="4"/>
       <c r="L166" s="4"/>
@@ -5165,7 +5203,7 @@
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
-      <c r="I167" s="15"/>
+      <c r="I167" s="14"/>
       <c r="J167" s="3"/>
       <c r="K167" s="3"/>
       <c r="L167" s="3"/>
@@ -5180,7 +5218,7 @@
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
       <c r="H168" s="4"/>
-      <c r="I168" s="14"/>
+      <c r="I168" s="13"/>
       <c r="J168" s="4"/>
       <c r="K168" s="4"/>
       <c r="L168" s="4"/>
@@ -5195,7 +5233,7 @@
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
-      <c r="I169" s="15"/>
+      <c r="I169" s="14"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3"/>
       <c r="L169" s="3"/>
@@ -5210,7 +5248,7 @@
       <c r="F170" s="4"/>
       <c r="G170" s="4"/>
       <c r="H170" s="4"/>
-      <c r="I170" s="14"/>
+      <c r="I170" s="13"/>
       <c r="J170" s="4"/>
       <c r="K170" s="4"/>
       <c r="L170" s="4"/>
@@ -5225,7 +5263,7 @@
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
-      <c r="I171" s="15"/>
+      <c r="I171" s="14"/>
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
       <c r="L171" s="3"/>
@@ -5240,7 +5278,7 @@
       <c r="F172" s="4"/>
       <c r="G172" s="4"/>
       <c r="H172" s="4"/>
-      <c r="I172" s="14"/>
+      <c r="I172" s="13"/>
       <c r="J172" s="4"/>
       <c r="K172" s="4"/>
       <c r="L172" s="4"/>
@@ -5255,7 +5293,7 @@
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
-      <c r="I173" s="15"/>
+      <c r="I173" s="14"/>
       <c r="J173" s="3"/>
       <c r="K173" s="3"/>
       <c r="L173" s="3"/>
@@ -5270,7 +5308,7 @@
       <c r="F174" s="4"/>
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
-      <c r="I174" s="14"/>
+      <c r="I174" s="13"/>
       <c r="J174" s="4"/>
       <c r="K174" s="4"/>
       <c r="L174" s="4"/>
@@ -5285,7 +5323,7 @@
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
-      <c r="I175" s="15"/>
+      <c r="I175" s="14"/>
       <c r="J175" s="3"/>
       <c r="K175" s="3"/>
       <c r="L175" s="3"/>
@@ -5300,7 +5338,7 @@
       <c r="F176" s="4"/>
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
-      <c r="I176" s="14"/>
+      <c r="I176" s="13"/>
       <c r="J176" s="4"/>
       <c r="K176" s="4"/>
       <c r="L176" s="4"/>
@@ -5315,7 +5353,7 @@
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
-      <c r="I177" s="15"/>
+      <c r="I177" s="14"/>
       <c r="J177" s="3"/>
       <c r="K177" s="3"/>
       <c r="L177" s="3"/>
@@ -5330,7 +5368,7 @@
       <c r="F178" s="4"/>
       <c r="G178" s="4"/>
       <c r="H178" s="4"/>
-      <c r="I178" s="14"/>
+      <c r="I178" s="13"/>
       <c r="J178" s="4"/>
       <c r="K178" s="4"/>
       <c r="L178" s="4"/>
@@ -5345,7 +5383,7 @@
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
-      <c r="I179" s="15"/>
+      <c r="I179" s="14"/>
       <c r="J179" s="3"/>
       <c r="K179" s="3"/>
       <c r="L179" s="3"/>
@@ -5360,7 +5398,7 @@
       <c r="F180" s="4"/>
       <c r="G180" s="4"/>
       <c r="H180" s="4"/>
-      <c r="I180" s="14"/>
+      <c r="I180" s="13"/>
       <c r="J180" s="4"/>
       <c r="K180" s="4"/>
       <c r="L180" s="4"/>
@@ -5375,7 +5413,7 @@
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
-      <c r="I181" s="15"/>
+      <c r="I181" s="14"/>
       <c r="J181" s="3"/>
       <c r="K181" s="3"/>
       <c r="L181" s="3"/>
@@ -5390,7 +5428,7 @@
       <c r="F182" s="4"/>
       <c r="G182" s="4"/>
       <c r="H182" s="4"/>
-      <c r="I182" s="14"/>
+      <c r="I182" s="13"/>
       <c r="J182" s="4"/>
       <c r="K182" s="4"/>
       <c r="L182" s="4"/>
@@ -5405,7 +5443,7 @@
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
-      <c r="I183" s="15"/>
+      <c r="I183" s="14"/>
       <c r="J183" s="3"/>
       <c r="K183" s="3"/>
       <c r="L183" s="3"/>
@@ -5420,7 +5458,7 @@
       <c r="F184" s="4"/>
       <c r="G184" s="4"/>
       <c r="H184" s="4"/>
-      <c r="I184" s="14"/>
+      <c r="I184" s="13"/>
       <c r="J184" s="4"/>
       <c r="K184" s="4"/>
       <c r="L184" s="4"/>
@@ -5435,7 +5473,7 @@
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
-      <c r="I185" s="15"/>
+      <c r="I185" s="14"/>
       <c r="J185" s="3"/>
       <c r="K185" s="3"/>
       <c r="L185" s="3"/>
@@ -5450,7 +5488,7 @@
       <c r="F186" s="4"/>
       <c r="G186" s="4"/>
       <c r="H186" s="4"/>
-      <c r="I186" s="14"/>
+      <c r="I186" s="13"/>
       <c r="J186" s="4"/>
       <c r="K186" s="4"/>
       <c r="L186" s="4"/>
@@ -5465,7 +5503,7 @@
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
-      <c r="I187" s="15"/>
+      <c r="I187" s="14"/>
       <c r="J187" s="3"/>
       <c r="K187" s="3"/>
       <c r="L187" s="3"/>
@@ -5480,7 +5518,7 @@
       <c r="F188" s="4"/>
       <c r="G188" s="4"/>
       <c r="H188" s="4"/>
-      <c r="I188" s="14"/>
+      <c r="I188" s="13"/>
       <c r="J188" s="4"/>
       <c r="K188" s="4"/>
       <c r="L188" s="4"/>
@@ -5495,7 +5533,7 @@
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
-      <c r="I189" s="15"/>
+      <c r="I189" s="14"/>
       <c r="J189" s="3"/>
       <c r="K189" s="3"/>
       <c r="L189" s="3"/>
@@ -5510,7 +5548,7 @@
       <c r="F190" s="4"/>
       <c r="G190" s="4"/>
       <c r="H190" s="4"/>
-      <c r="I190" s="14"/>
+      <c r="I190" s="13"/>
       <c r="J190" s="4"/>
       <c r="K190" s="4"/>
       <c r="L190" s="4"/>
@@ -5525,7 +5563,7 @@
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
-      <c r="I191" s="15"/>
+      <c r="I191" s="14"/>
       <c r="J191" s="3"/>
       <c r="K191" s="3"/>
       <c r="L191" s="3"/>
@@ -5540,7 +5578,7 @@
       <c r="F192" s="4"/>
       <c r="G192" s="4"/>
       <c r="H192" s="4"/>
-      <c r="I192" s="14"/>
+      <c r="I192" s="13"/>
       <c r="J192" s="4"/>
       <c r="K192" s="4"/>
       <c r="L192" s="4"/>
@@ -5555,7 +5593,7 @@
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
-      <c r="I193" s="15"/>
+      <c r="I193" s="14"/>
       <c r="J193" s="3"/>
       <c r="K193" s="3"/>
       <c r="L193" s="3"/>
@@ -5570,7 +5608,7 @@
       <c r="F194" s="4"/>
       <c r="G194" s="4"/>
       <c r="H194" s="4"/>
-      <c r="I194" s="14"/>
+      <c r="I194" s="13"/>
       <c r="J194" s="4"/>
       <c r="K194" s="4"/>
       <c r="L194" s="4"/>
@@ -5585,7 +5623,7 @@
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
-      <c r="I195" s="15"/>
+      <c r="I195" s="14"/>
       <c r="J195" s="3"/>
       <c r="K195" s="3"/>
       <c r="L195" s="3"/>
@@ -5600,7 +5638,7 @@
       <c r="F196" s="4"/>
       <c r="G196" s="4"/>
       <c r="H196" s="4"/>
-      <c r="I196" s="14"/>
+      <c r="I196" s="13"/>
       <c r="J196" s="4"/>
       <c r="K196" s="4"/>
       <c r="L196" s="4"/>
@@ -5615,7 +5653,7 @@
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
-      <c r="I197" s="15"/>
+      <c r="I197" s="14"/>
       <c r="J197" s="3"/>
       <c r="K197" s="3"/>
       <c r="L197" s="3"/>
@@ -5630,7 +5668,7 @@
       <c r="F198" s="4"/>
       <c r="G198" s="4"/>
       <c r="H198" s="4"/>
-      <c r="I198" s="14"/>
+      <c r="I198" s="13"/>
       <c r="J198" s="4"/>
       <c r="K198" s="4"/>
       <c r="L198" s="4"/>
@@ -5645,7 +5683,7 @@
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
-      <c r="I199" s="15"/>
+      <c r="I199" s="14"/>
       <c r="J199" s="3"/>
       <c r="K199" s="3"/>
       <c r="L199" s="3"/>
@@ -5660,7 +5698,7 @@
       <c r="F200" s="4"/>
       <c r="G200" s="4"/>
       <c r="H200" s="4"/>
-      <c r="I200" s="14"/>
+      <c r="I200" s="13"/>
       <c r="J200" s="4"/>
       <c r="K200" s="4"/>
       <c r="L200" s="4"/>
@@ -5675,7 +5713,7 @@
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
       <c r="H201" s="3"/>
-      <c r="I201" s="15"/>
+      <c r="I201" s="14"/>
       <c r="J201" s="3"/>
       <c r="K201" s="3"/>
       <c r="L201" s="3"/>
@@ -5690,7 +5728,7 @@
       <c r="F202" s="4"/>
       <c r="G202" s="4"/>
       <c r="H202" s="4"/>
-      <c r="I202" s="14"/>
+      <c r="I202" s="13"/>
       <c r="J202" s="4"/>
       <c r="K202" s="4"/>
       <c r="L202" s="4"/>
@@ -5705,7 +5743,7 @@
       <c r="F203" s="3"/>
       <c r="G203" s="3"/>
       <c r="H203" s="3"/>
-      <c r="I203" s="15"/>
+      <c r="I203" s="14"/>
       <c r="J203" s="3"/>
       <c r="K203" s="3"/>
       <c r="L203" s="3"/>
@@ -5720,7 +5758,7 @@
       <c r="F204" s="4"/>
       <c r="G204" s="4"/>
       <c r="H204" s="4"/>
-      <c r="I204" s="14"/>
+      <c r="I204" s="13"/>
       <c r="J204" s="4"/>
       <c r="K204" s="4"/>
       <c r="L204" s="4"/>
@@ -5735,7 +5773,7 @@
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
       <c r="H205" s="3"/>
-      <c r="I205" s="15"/>
+      <c r="I205" s="14"/>
       <c r="J205" s="3"/>
       <c r="K205" s="3"/>
       <c r="L205" s="3"/>
@@ -5750,7 +5788,7 @@
       <c r="F206" s="4"/>
       <c r="G206" s="4"/>
       <c r="H206" s="4"/>
-      <c r="I206" s="14"/>
+      <c r="I206" s="13"/>
       <c r="J206" s="4"/>
       <c r="K206" s="4"/>
       <c r="L206" s="4"/>
@@ -5765,7 +5803,7 @@
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
       <c r="H207" s="3"/>
-      <c r="I207" s="15"/>
+      <c r="I207" s="14"/>
       <c r="J207" s="3"/>
       <c r="K207" s="3"/>
       <c r="L207" s="3"/>
@@ -5780,7 +5818,7 @@
       <c r="F208" s="4"/>
       <c r="G208" s="4"/>
       <c r="H208" s="4"/>
-      <c r="I208" s="14"/>
+      <c r="I208" s="13"/>
       <c r="J208" s="4"/>
       <c r="K208" s="4"/>
       <c r="L208" s="4"/>
@@ -5795,7 +5833,7 @@
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
       <c r="H209" s="3"/>
-      <c r="I209" s="15"/>
+      <c r="I209" s="14"/>
       <c r="J209" s="3"/>
       <c r="K209" s="3"/>
       <c r="L209" s="3"/>
@@ -5810,7 +5848,7 @@
       <c r="F210" s="4"/>
       <c r="G210" s="4"/>
       <c r="H210" s="4"/>
-      <c r="I210" s="14"/>
+      <c r="I210" s="13"/>
       <c r="J210" s="4"/>
       <c r="K210" s="4"/>
       <c r="L210" s="4"/>
@@ -5825,7 +5863,7 @@
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
       <c r="H211" s="3"/>
-      <c r="I211" s="15"/>
+      <c r="I211" s="14"/>
       <c r="J211" s="3"/>
       <c r="K211" s="3"/>
       <c r="L211" s="3"/>
@@ -5840,7 +5878,7 @@
       <c r="F212" s="4"/>
       <c r="G212" s="4"/>
       <c r="H212" s="4"/>
-      <c r="I212" s="14"/>
+      <c r="I212" s="13"/>
       <c r="J212" s="4"/>
       <c r="K212" s="4"/>
       <c r="L212" s="4"/>
@@ -5855,7 +5893,7 @@
       <c r="F213" s="3"/>
       <c r="G213" s="3"/>
       <c r="H213" s="3"/>
-      <c r="I213" s="15"/>
+      <c r="I213" s="14"/>
       <c r="J213" s="3"/>
       <c r="K213" s="3"/>
       <c r="L213" s="3"/>
@@ -5870,7 +5908,7 @@
       <c r="F214" s="4"/>
       <c r="G214" s="4"/>
       <c r="H214" s="4"/>
-      <c r="I214" s="14"/>
+      <c r="I214" s="13"/>
       <c r="J214" s="4"/>
       <c r="K214" s="4"/>
       <c r="L214" s="4"/>
@@ -5885,7 +5923,7 @@
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
       <c r="H215" s="3"/>
-      <c r="I215" s="15"/>
+      <c r="I215" s="14"/>
       <c r="J215" s="3"/>
       <c r="K215" s="3"/>
       <c r="L215" s="3"/>
@@ -5900,7 +5938,7 @@
       <c r="F216" s="4"/>
       <c r="G216" s="4"/>
       <c r="H216" s="4"/>
-      <c r="I216" s="14"/>
+      <c r="I216" s="13"/>
       <c r="J216" s="4"/>
       <c r="K216" s="4"/>
       <c r="L216" s="4"/>
@@ -5915,7 +5953,7 @@
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
       <c r="H217" s="3"/>
-      <c r="I217" s="15"/>
+      <c r="I217" s="14"/>
       <c r="J217" s="3"/>
       <c r="K217" s="3"/>
       <c r="L217" s="3"/>
@@ -5930,7 +5968,7 @@
       <c r="F218" s="4"/>
       <c r="G218" s="4"/>
       <c r="H218" s="4"/>
-      <c r="I218" s="14"/>
+      <c r="I218" s="13"/>
       <c r="J218" s="4"/>
       <c r="K218" s="4"/>
       <c r="L218" s="4"/>
@@ -5945,7 +5983,7 @@
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
       <c r="H219" s="3"/>
-      <c r="I219" s="15"/>
+      <c r="I219" s="14"/>
       <c r="J219" s="3"/>
       <c r="K219" s="3"/>
       <c r="L219" s="3"/>
@@ -5960,7 +5998,7 @@
       <c r="F220" s="4"/>
       <c r="G220" s="4"/>
       <c r="H220" s="4"/>
-      <c r="I220" s="14"/>
+      <c r="I220" s="13"/>
       <c r="J220" s="4"/>
       <c r="K220" s="4"/>
       <c r="L220" s="4"/>
@@ -5975,7 +6013,7 @@
       <c r="F221" s="3"/>
       <c r="G221" s="3"/>
       <c r="H221" s="3"/>
-      <c r="I221" s="15"/>
+      <c r="I221" s="14"/>
       <c r="J221" s="3"/>
       <c r="K221" s="3"/>
       <c r="L221" s="3"/>
@@ -5990,7 +6028,7 @@
       <c r="F222" s="4"/>
       <c r="G222" s="4"/>
       <c r="H222" s="4"/>
-      <c r="I222" s="14"/>
+      <c r="I222" s="13"/>
       <c r="J222" s="4"/>
       <c r="K222" s="4"/>
       <c r="L222" s="4"/>
@@ -6005,7 +6043,7 @@
       <c r="F223" s="3"/>
       <c r="G223" s="3"/>
       <c r="H223" s="3"/>
-      <c r="I223" s="15"/>
+      <c r="I223" s="14"/>
       <c r="J223" s="3"/>
       <c r="K223" s="3"/>
       <c r="L223" s="3"/>
@@ -6020,7 +6058,7 @@
       <c r="F224" s="4"/>
       <c r="G224" s="4"/>
       <c r="H224" s="4"/>
-      <c r="I224" s="14"/>
+      <c r="I224" s="13"/>
       <c r="J224" s="4"/>
       <c r="K224" s="4"/>
       <c r="L224" s="4"/>
@@ -6035,7 +6073,7 @@
       <c r="F225" s="3"/>
       <c r="G225" s="3"/>
       <c r="H225" s="3"/>
-      <c r="I225" s="15"/>
+      <c r="I225" s="14"/>
       <c r="J225" s="3"/>
       <c r="K225" s="3"/>
       <c r="L225" s="3"/>
@@ -6050,7 +6088,7 @@
       <c r="F226" s="4"/>
       <c r="G226" s="4"/>
       <c r="H226" s="4"/>
-      <c r="I226" s="14"/>
+      <c r="I226" s="13"/>
       <c r="J226" s="4"/>
       <c r="K226" s="4"/>
       <c r="L226" s="4"/>
@@ -6065,7 +6103,7 @@
       <c r="F227" s="3"/>
       <c r="G227" s="3"/>
       <c r="H227" s="3"/>
-      <c r="I227" s="15"/>
+      <c r="I227" s="14"/>
       <c r="J227" s="3"/>
       <c r="K227" s="3"/>
       <c r="L227" s="3"/>
@@ -6080,7 +6118,7 @@
       <c r="F228" s="4"/>
       <c r="G228" s="4"/>
       <c r="H228" s="4"/>
-      <c r="I228" s="14"/>
+      <c r="I228" s="13"/>
       <c r="J228" s="4"/>
       <c r="K228" s="4"/>
       <c r="L228" s="4"/>
@@ -6095,7 +6133,7 @@
       <c r="F229" s="3"/>
       <c r="G229" s="3"/>
       <c r="H229" s="3"/>
-      <c r="I229" s="15"/>
+      <c r="I229" s="14"/>
       <c r="J229" s="3"/>
       <c r="K229" s="3"/>
       <c r="L229" s="3"/>
@@ -6110,7 +6148,7 @@
       <c r="F230" s="4"/>
       <c r="G230" s="4"/>
       <c r="H230" s="4"/>
-      <c r="I230" s="14"/>
+      <c r="I230" s="13"/>
       <c r="J230" s="4"/>
       <c r="K230" s="4"/>
       <c r="L230" s="4"/>
@@ -6125,7 +6163,7 @@
       <c r="F231" s="3"/>
       <c r="G231" s="3"/>
       <c r="H231" s="3"/>
-      <c r="I231" s="15"/>
+      <c r="I231" s="14"/>
       <c r="J231" s="3"/>
       <c r="K231" s="3"/>
       <c r="L231" s="3"/>
@@ -6140,7 +6178,7 @@
       <c r="F232" s="4"/>
       <c r="G232" s="4"/>
       <c r="H232" s="4"/>
-      <c r="I232" s="14"/>
+      <c r="I232" s="13"/>
       <c r="J232" s="4"/>
       <c r="K232" s="4"/>
       <c r="L232" s="4"/>
@@ -6155,7 +6193,7 @@
       <c r="F233" s="3"/>
       <c r="G233" s="3"/>
       <c r="H233" s="3"/>
-      <c r="I233" s="15"/>
+      <c r="I233" s="14"/>
       <c r="J233" s="3"/>
       <c r="K233" s="3"/>
       <c r="L233" s="3"/>
@@ -6170,7 +6208,7 @@
       <c r="F234" s="4"/>
       <c r="G234" s="4"/>
       <c r="H234" s="4"/>
-      <c r="I234" s="14"/>
+      <c r="I234" s="13"/>
       <c r="J234" s="4"/>
       <c r="K234" s="4"/>
       <c r="L234" s="4"/>
@@ -6185,7 +6223,7 @@
       <c r="F235" s="3"/>
       <c r="G235" s="3"/>
       <c r="H235" s="3"/>
-      <c r="I235" s="15"/>
+      <c r="I235" s="14"/>
       <c r="J235" s="3"/>
       <c r="K235" s="3"/>
       <c r="L235" s="3"/>
@@ -6200,7 +6238,7 @@
       <c r="F236" s="4"/>
       <c r="G236" s="4"/>
       <c r="H236" s="4"/>
-      <c r="I236" s="14"/>
+      <c r="I236" s="13"/>
       <c r="J236" s="4"/>
       <c r="K236" s="4"/>
       <c r="L236" s="4"/>
@@ -6215,7 +6253,7 @@
       <c r="F237" s="3"/>
       <c r="G237" s="3"/>
       <c r="H237" s="3"/>
-      <c r="I237" s="15"/>
+      <c r="I237" s="14"/>
       <c r="J237" s="3"/>
       <c r="K237" s="3"/>
       <c r="L237" s="3"/>
@@ -6230,7 +6268,7 @@
       <c r="F238" s="4"/>
       <c r="G238" s="4"/>
       <c r="H238" s="4"/>
-      <c r="I238" s="14"/>
+      <c r="I238" s="13"/>
       <c r="J238" s="4"/>
       <c r="K238" s="4"/>
       <c r="L238" s="4"/>
@@ -6245,7 +6283,7 @@
       <c r="F239" s="3"/>
       <c r="G239" s="3"/>
       <c r="H239" s="3"/>
-      <c r="I239" s="15"/>
+      <c r="I239" s="14"/>
       <c r="J239" s="3"/>
       <c r="K239" s="3"/>
       <c r="L239" s="3"/>
@@ -6260,7 +6298,7 @@
       <c r="F240" s="4"/>
       <c r="G240" s="4"/>
       <c r="H240" s="4"/>
-      <c r="I240" s="14"/>
+      <c r="I240" s="13"/>
       <c r="J240" s="4"/>
       <c r="K240" s="4"/>
       <c r="L240" s="4"/>
@@ -6275,7 +6313,7 @@
       <c r="F241" s="3"/>
       <c r="G241" s="3"/>
       <c r="H241" s="3"/>
-      <c r="I241" s="15"/>
+      <c r="I241" s="14"/>
       <c r="J241" s="3"/>
       <c r="K241" s="3"/>
       <c r="L241" s="3"/>
@@ -6290,7 +6328,7 @@
       <c r="F242" s="4"/>
       <c r="G242" s="4"/>
       <c r="H242" s="4"/>
-      <c r="I242" s="14"/>
+      <c r="I242" s="13"/>
       <c r="J242" s="4"/>
       <c r="K242" s="4"/>
       <c r="L242" s="4"/>
@@ -6305,7 +6343,7 @@
       <c r="F243" s="3"/>
       <c r="G243" s="3"/>
       <c r="H243" s="3"/>
-      <c r="I243" s="15"/>
+      <c r="I243" s="14"/>
       <c r="J243" s="3"/>
       <c r="K243" s="3"/>
       <c r="L243" s="3"/>
@@ -6320,7 +6358,7 @@
       <c r="F244" s="4"/>
       <c r="G244" s="4"/>
       <c r="H244" s="4"/>
-      <c r="I244" s="14"/>
+      <c r="I244" s="13"/>
       <c r="J244" s="4"/>
       <c r="K244" s="4"/>
       <c r="L244" s="4"/>
@@ -6335,7 +6373,7 @@
       <c r="F245" s="3"/>
       <c r="G245" s="3"/>
       <c r="H245" s="3"/>
-      <c r="I245" s="15"/>
+      <c r="I245" s="14"/>
       <c r="J245" s="3"/>
       <c r="K245" s="3"/>
       <c r="L245" s="3"/>
@@ -6350,7 +6388,7 @@
       <c r="F246" s="4"/>
       <c r="G246" s="4"/>
       <c r="H246" s="4"/>
-      <c r="I246" s="14"/>
+      <c r="I246" s="13"/>
       <c r="J246" s="4"/>
       <c r="K246" s="4"/>
       <c r="L246" s="4"/>
@@ -6365,7 +6403,7 @@
       <c r="F247" s="3"/>
       <c r="G247" s="3"/>
       <c r="H247" s="3"/>
-      <c r="I247" s="15"/>
+      <c r="I247" s="14"/>
       <c r="J247" s="3"/>
       <c r="K247" s="3"/>
       <c r="L247" s="3"/>
@@ -6380,7 +6418,7 @@
       <c r="F248" s="4"/>
       <c r="G248" s="4"/>
       <c r="H248" s="4"/>
-      <c r="I248" s="14"/>
+      <c r="I248" s="13"/>
       <c r="J248" s="4"/>
       <c r="K248" s="4"/>
       <c r="L248" s="4"/>
@@ -6395,7 +6433,7 @@
       <c r="F249" s="3"/>
       <c r="G249" s="3"/>
       <c r="H249" s="3"/>
-      <c r="I249" s="15"/>
+      <c r="I249" s="14"/>
       <c r="J249" s="3"/>
       <c r="K249" s="3"/>
       <c r="L249" s="3"/>
@@ -6410,7 +6448,7 @@
       <c r="F250" s="4"/>
       <c r="G250" s="4"/>
       <c r="H250" s="4"/>
-      <c r="I250" s="14"/>
+      <c r="I250" s="13"/>
       <c r="J250" s="4"/>
       <c r="K250" s="4"/>
       <c r="L250" s="4"/>
@@ -6425,7 +6463,7 @@
       <c r="F251" s="3"/>
       <c r="G251" s="3"/>
       <c r="H251" s="3"/>
-      <c r="I251" s="15"/>
+      <c r="I251" s="14"/>
       <c r="J251" s="3"/>
       <c r="K251" s="3"/>
       <c r="L251" s="3"/>
@@ -6440,7 +6478,7 @@
       <c r="F252" s="4"/>
       <c r="G252" s="4"/>
       <c r="H252" s="4"/>
-      <c r="I252" s="14"/>
+      <c r="I252" s="13"/>
       <c r="J252" s="4"/>
       <c r="K252" s="4"/>
       <c r="L252" s="4"/>
@@ -6455,7 +6493,7 @@
       <c r="F253" s="3"/>
       <c r="G253" s="3"/>
       <c r="H253" s="3"/>
-      <c r="I253" s="15"/>
+      <c r="I253" s="14"/>
       <c r="J253" s="3"/>
       <c r="K253" s="3"/>
       <c r="L253" s="3"/>
@@ -6470,7 +6508,7 @@
       <c r="F254" s="4"/>
       <c r="G254" s="4"/>
       <c r="H254" s="4"/>
-      <c r="I254" s="14"/>
+      <c r="I254" s="13"/>
       <c r="J254" s="4"/>
       <c r="K254" s="4"/>
       <c r="L254" s="4"/>
@@ -6485,7 +6523,7 @@
       <c r="F255" s="3"/>
       <c r="G255" s="3"/>
       <c r="H255" s="3"/>
-      <c r="I255" s="15"/>
+      <c r="I255" s="14"/>
       <c r="J255" s="3"/>
       <c r="K255" s="3"/>
       <c r="L255" s="3"/>
@@ -6500,7 +6538,7 @@
       <c r="F256" s="4"/>
       <c r="G256" s="4"/>
       <c r="H256" s="4"/>
-      <c r="I256" s="14"/>
+      <c r="I256" s="13"/>
       <c r="J256" s="4"/>
       <c r="K256" s="4"/>
       <c r="L256" s="4"/>
@@ -6515,7 +6553,7 @@
       <c r="F257" s="3"/>
       <c r="G257" s="3"/>
       <c r="H257" s="3"/>
-      <c r="I257" s="15"/>
+      <c r="I257" s="14"/>
       <c r="J257" s="3"/>
       <c r="K257" s="3"/>
       <c r="L257" s="3"/>
@@ -6530,7 +6568,7 @@
       <c r="F258" s="4"/>
       <c r="G258" s="4"/>
       <c r="H258" s="4"/>
-      <c r="I258" s="14"/>
+      <c r="I258" s="13"/>
       <c r="J258" s="4"/>
       <c r="K258" s="4"/>
       <c r="L258" s="4"/>
@@ -6545,7 +6583,7 @@
       <c r="F259" s="3"/>
       <c r="G259" s="3"/>
       <c r="H259" s="3"/>
-      <c r="I259" s="15"/>
+      <c r="I259" s="14"/>
       <c r="J259" s="3"/>
       <c r="K259" s="3"/>
       <c r="L259" s="3"/>
@@ -6560,7 +6598,7 @@
       <c r="F260" s="4"/>
       <c r="G260" s="4"/>
       <c r="H260" s="4"/>
-      <c r="I260" s="14"/>
+      <c r="I260" s="13"/>
       <c r="J260" s="4"/>
       <c r="K260" s="4"/>
       <c r="L260" s="4"/>
@@ -6575,7 +6613,7 @@
       <c r="F261" s="3"/>
       <c r="G261" s="3"/>
       <c r="H261" s="3"/>
-      <c r="I261" s="15"/>
+      <c r="I261" s="14"/>
       <c r="J261" s="3"/>
       <c r="K261" s="3"/>
       <c r="L261" s="3"/>
@@ -6590,7 +6628,7 @@
       <c r="F262" s="4"/>
       <c r="G262" s="4"/>
       <c r="H262" s="4"/>
-      <c r="I262" s="14"/>
+      <c r="I262" s="13"/>
       <c r="J262" s="4"/>
       <c r="K262" s="4"/>
       <c r="L262" s="4"/>
@@ -6605,7 +6643,7 @@
       <c r="F263" s="3"/>
       <c r="G263" s="3"/>
       <c r="H263" s="3"/>
-      <c r="I263" s="15"/>
+      <c r="I263" s="14"/>
       <c r="J263" s="3"/>
       <c r="K263" s="3"/>
       <c r="L263" s="3"/>
@@ -6620,7 +6658,7 @@
       <c r="F264" s="4"/>
       <c r="G264" s="4"/>
       <c r="H264" s="4"/>
-      <c r="I264" s="14"/>
+      <c r="I264" s="13"/>
       <c r="J264" s="4"/>
       <c r="K264" s="4"/>
       <c r="L264" s="4"/>
@@ -6635,7 +6673,7 @@
       <c r="F265" s="3"/>
       <c r="G265" s="3"/>
       <c r="H265" s="3"/>
-      <c r="I265" s="15"/>
+      <c r="I265" s="14"/>
       <c r="J265" s="3"/>
       <c r="K265" s="3"/>
       <c r="L265" s="3"/>
@@ -6650,7 +6688,7 @@
       <c r="F266" s="4"/>
       <c r="G266" s="4"/>
       <c r="H266" s="4"/>
-      <c r="I266" s="14"/>
+      <c r="I266" s="13"/>
       <c r="J266" s="4"/>
       <c r="K266" s="4"/>
       <c r="L266" s="4"/>
@@ -6665,7 +6703,7 @@
       <c r="F267" s="3"/>
       <c r="G267" s="3"/>
       <c r="H267" s="3"/>
-      <c r="I267" s="15"/>
+      <c r="I267" s="14"/>
       <c r="J267" s="3"/>
       <c r="K267" s="3"/>
       <c r="L267" s="3"/>
@@ -6680,7 +6718,7 @@
       <c r="F268" s="4"/>
       <c r="G268" s="4"/>
       <c r="H268" s="4"/>
-      <c r="I268" s="14"/>
+      <c r="I268" s="13"/>
       <c r="J268" s="4"/>
       <c r="K268" s="4"/>
       <c r="L268" s="4"/>
@@ -6695,7 +6733,7 @@
       <c r="F269" s="3"/>
       <c r="G269" s="3"/>
       <c r="H269" s="3"/>
-      <c r="I269" s="15"/>
+      <c r="I269" s="14"/>
       <c r="J269" s="3"/>
       <c r="K269" s="3"/>
       <c r="L269" s="3"/>
@@ -6710,7 +6748,7 @@
       <c r="F270" s="4"/>
       <c r="G270" s="4"/>
       <c r="H270" s="4"/>
-      <c r="I270" s="14"/>
+      <c r="I270" s="13"/>
       <c r="J270" s="4"/>
       <c r="K270" s="4"/>
       <c r="L270" s="4"/>
@@ -6725,7 +6763,7 @@
       <c r="F271" s="3"/>
       <c r="G271" s="3"/>
       <c r="H271" s="3"/>
-      <c r="I271" s="15"/>
+      <c r="I271" s="14"/>
       <c r="J271" s="3"/>
       <c r="K271" s="3"/>
       <c r="L271" s="3"/>
@@ -6740,7 +6778,7 @@
       <c r="F272" s="4"/>
       <c r="G272" s="4"/>
       <c r="H272" s="4"/>
-      <c r="I272" s="14"/>
+      <c r="I272" s="13"/>
       <c r="J272" s="4"/>
       <c r="K272" s="4"/>
       <c r="L272" s="4"/>
@@ -6755,7 +6793,7 @@
       <c r="F273" s="3"/>
       <c r="G273" s="3"/>
       <c r="H273" s="3"/>
-      <c r="I273" s="15"/>
+      <c r="I273" s="14"/>
       <c r="J273" s="3"/>
       <c r="K273" s="3"/>
       <c r="L273" s="3"/>
@@ -6770,7 +6808,7 @@
       <c r="F274" s="4"/>
       <c r="G274" s="4"/>
       <c r="H274" s="4"/>
-      <c r="I274" s="14"/>
+      <c r="I274" s="13"/>
       <c r="J274" s="4"/>
       <c r="K274" s="4"/>
       <c r="L274" s="4"/>
@@ -6785,7 +6823,7 @@
       <c r="F275" s="3"/>
       <c r="G275" s="3"/>
       <c r="H275" s="3"/>
-      <c r="I275" s="15"/>
+      <c r="I275" s="14"/>
       <c r="J275" s="3"/>
       <c r="K275" s="3"/>
       <c r="L275" s="3"/>
@@ -6800,7 +6838,7 @@
       <c r="F276" s="4"/>
       <c r="G276" s="4"/>
       <c r="H276" s="4"/>
-      <c r="I276" s="14"/>
+      <c r="I276" s="13"/>
       <c r="J276" s="4"/>
       <c r="K276" s="4"/>
       <c r="L276" s="4"/>
@@ -6815,7 +6853,7 @@
       <c r="F277" s="3"/>
       <c r="G277" s="3"/>
       <c r="H277" s="3"/>
-      <c r="I277" s="15"/>
+      <c r="I277" s="14"/>
       <c r="J277" s="3"/>
       <c r="K277" s="3"/>
       <c r="L277" s="3"/>
@@ -6830,7 +6868,7 @@
       <c r="F278" s="4"/>
       <c r="G278" s="4"/>
       <c r="H278" s="4"/>
-      <c r="I278" s="14"/>
+      <c r="I278" s="13"/>
       <c r="J278" s="4"/>
       <c r="K278" s="4"/>
       <c r="L278" s="4"/>
@@ -6845,7 +6883,7 @@
       <c r="F279" s="3"/>
       <c r="G279" s="3"/>
       <c r="H279" s="3"/>
-      <c r="I279" s="15"/>
+      <c r="I279" s="14"/>
       <c r="J279" s="3"/>
       <c r="K279" s="3"/>
       <c r="L279" s="3"/>
@@ -6860,7 +6898,7 @@
       <c r="F280" s="4"/>
       <c r="G280" s="4"/>
       <c r="H280" s="4"/>
-      <c r="I280" s="14"/>
+      <c r="I280" s="13"/>
       <c r="J280" s="4"/>
       <c r="K280" s="4"/>
       <c r="L280" s="4"/>
@@ -6875,7 +6913,7 @@
       <c r="F281" s="3"/>
       <c r="G281" s="3"/>
       <c r="H281" s="3"/>
-      <c r="I281" s="15"/>
+      <c r="I281" s="14"/>
       <c r="J281" s="3"/>
       <c r="K281" s="3"/>
       <c r="L281" s="3"/>
@@ -6890,7 +6928,7 @@
       <c r="F282" s="4"/>
       <c r="G282" s="4"/>
       <c r="H282" s="4"/>
-      <c r="I282" s="14"/>
+      <c r="I282" s="13"/>
       <c r="J282" s="4"/>
       <c r="K282" s="4"/>
       <c r="L282" s="4"/>
@@ -6905,7 +6943,7 @@
       <c r="F283" s="3"/>
       <c r="G283" s="3"/>
       <c r="H283" s="3"/>
-      <c r="I283" s="15"/>
+      <c r="I283" s="14"/>
       <c r="J283" s="3"/>
       <c r="K283" s="3"/>
       <c r="L283" s="3"/>
@@ -6920,7 +6958,7 @@
       <c r="F284" s="4"/>
       <c r="G284" s="4"/>
       <c r="H284" s="4"/>
-      <c r="I284" s="14"/>
+      <c r="I284" s="13"/>
       <c r="J284" s="4"/>
       <c r="K284" s="4"/>
       <c r="L284" s="4"/>
@@ -6935,7 +6973,7 @@
       <c r="F285" s="3"/>
       <c r="G285" s="3"/>
       <c r="H285" s="3"/>
-      <c r="I285" s="15"/>
+      <c r="I285" s="14"/>
       <c r="J285" s="3"/>
       <c r="K285" s="3"/>
       <c r="L285" s="3"/>
@@ -6950,7 +6988,7 @@
       <c r="F286" s="4"/>
       <c r="G286" s="4"/>
       <c r="H286" s="4"/>
-      <c r="I286" s="14"/>
+      <c r="I286" s="13"/>
       <c r="J286" s="4"/>
       <c r="K286" s="4"/>
       <c r="L286" s="4"/>
@@ -6965,7 +7003,7 @@
       <c r="F287" s="3"/>
       <c r="G287" s="3"/>
       <c r="H287" s="3"/>
-      <c r="I287" s="15"/>
+      <c r="I287" s="14"/>
       <c r="J287" s="3"/>
       <c r="K287" s="3"/>
       <c r="L287" s="3"/>
@@ -6980,7 +7018,7 @@
       <c r="F288" s="4"/>
       <c r="G288" s="4"/>
       <c r="H288" s="4"/>
-      <c r="I288" s="14"/>
+      <c r="I288" s="13"/>
       <c r="J288" s="4"/>
       <c r="K288" s="4"/>
       <c r="L288" s="4"/>
@@ -6995,7 +7033,7 @@
       <c r="F289" s="3"/>
       <c r="G289" s="3"/>
       <c r="H289" s="3"/>
-      <c r="I289" s="15"/>
+      <c r="I289" s="14"/>
       <c r="J289" s="3"/>
       <c r="K289" s="3"/>
       <c r="L289" s="3"/>
@@ -7010,7 +7048,7 @@
       <c r="F290" s="4"/>
       <c r="G290" s="4"/>
       <c r="H290" s="4"/>
-      <c r="I290" s="14"/>
+      <c r="I290" s="13"/>
       <c r="J290" s="4"/>
       <c r="K290" s="4"/>
       <c r="L290" s="4"/>
@@ -7025,7 +7063,7 @@
       <c r="F291" s="3"/>
       <c r="G291" s="3"/>
       <c r="H291" s="3"/>
-      <c r="I291" s="15"/>
+      <c r="I291" s="14"/>
       <c r="J291" s="3"/>
       <c r="K291" s="3"/>
       <c r="L291" s="3"/>
@@ -7040,7 +7078,7 @@
       <c r="F292" s="4"/>
       <c r="G292" s="4"/>
       <c r="H292" s="4"/>
-      <c r="I292" s="14"/>
+      <c r="I292" s="13"/>
       <c r="J292" s="4"/>
       <c r="K292" s="4"/>
       <c r="L292" s="4"/>
@@ -7055,7 +7093,7 @@
       <c r="F293" s="3"/>
       <c r="G293" s="3"/>
       <c r="H293" s="3"/>
-      <c r="I293" s="15"/>
+      <c r="I293" s="14"/>
       <c r="J293" s="3"/>
       <c r="K293" s="3"/>
       <c r="L293" s="3"/>
@@ -7070,7 +7108,7 @@
       <c r="F294" s="4"/>
       <c r="G294" s="4"/>
       <c r="H294" s="4"/>
-      <c r="I294" s="14"/>
+      <c r="I294" s="13"/>
       <c r="J294" s="4"/>
       <c r="K294" s="4"/>
       <c r="L294" s="4"/>
@@ -7085,7 +7123,7 @@
       <c r="F295" s="3"/>
       <c r="G295" s="3"/>
       <c r="H295" s="3"/>
-      <c r="I295" s="15"/>
+      <c r="I295" s="14"/>
       <c r="J295" s="3"/>
       <c r="K295" s="3"/>
       <c r="L295" s="3"/>
@@ -7100,7 +7138,7 @@
       <c r="F296" s="4"/>
       <c r="G296" s="4"/>
       <c r="H296" s="4"/>
-      <c r="I296" s="14"/>
+      <c r="I296" s="13"/>
       <c r="J296" s="4"/>
       <c r="K296" s="4"/>
       <c r="L296" s="4"/>
@@ -7115,7 +7153,7 @@
       <c r="F297" s="3"/>
       <c r="G297" s="3"/>
       <c r="H297" s="3"/>
-      <c r="I297" s="15"/>
+      <c r="I297" s="14"/>
       <c r="J297" s="3"/>
       <c r="K297" s="3"/>
       <c r="L297" s="3"/>
@@ -7130,7 +7168,7 @@
       <c r="F298" s="4"/>
       <c r="G298" s="4"/>
       <c r="H298" s="4"/>
-      <c r="I298" s="14"/>
+      <c r="I298" s="13"/>
       <c r="J298" s="4"/>
       <c r="K298" s="4"/>
       <c r="L298" s="4"/>
@@ -7145,7 +7183,7 @@
       <c r="F299" s="3"/>
       <c r="G299" s="3"/>
       <c r="H299" s="3"/>
-      <c r="I299" s="15"/>
+      <c r="I299" s="14"/>
       <c r="J299" s="3"/>
       <c r="K299" s="3"/>
       <c r="L299" s="3"/>
@@ -7160,7 +7198,7 @@
       <c r="F300" s="4"/>
       <c r="G300" s="4"/>
       <c r="H300" s="4"/>
-      <c r="I300" s="14"/>
+      <c r="I300" s="13"/>
       <c r="J300" s="4"/>
       <c r="K300" s="4"/>
       <c r="L300" s="4"/>
@@ -7175,7 +7213,7 @@
       <c r="F301" s="3"/>
       <c r="G301" s="3"/>
       <c r="H301" s="3"/>
-      <c r="I301" s="15"/>
+      <c r="I301" s="14"/>
       <c r="J301" s="3"/>
       <c r="K301" s="3"/>
       <c r="L301" s="3"/>
@@ -7190,7 +7228,7 @@
       <c r="F302" s="4"/>
       <c r="G302" s="4"/>
       <c r="H302" s="4"/>
-      <c r="I302" s="14"/>
+      <c r="I302" s="13"/>
       <c r="J302" s="4"/>
       <c r="K302" s="4"/>
       <c r="L302" s="4"/>
@@ -7205,7 +7243,7 @@
       <c r="F303" s="3"/>
       <c r="G303" s="3"/>
       <c r="H303" s="3"/>
-      <c r="I303" s="15"/>
+      <c r="I303" s="14"/>
       <c r="J303" s="3"/>
       <c r="K303" s="3"/>
       <c r="L303" s="3"/>
@@ -7220,7 +7258,7 @@
       <c r="F304" s="4"/>
       <c r="G304" s="4"/>
       <c r="H304" s="4"/>
-      <c r="I304" s="14"/>
+      <c r="I304" s="13"/>
       <c r="J304" s="4"/>
       <c r="K304" s="4"/>
       <c r="L304" s="4"/>
@@ -7235,7 +7273,7 @@
       <c r="F305" s="3"/>
       <c r="G305" s="3"/>
       <c r="H305" s="3"/>
-      <c r="I305" s="15"/>
+      <c r="I305" s="14"/>
       <c r="J305" s="3"/>
       <c r="K305" s="3"/>
       <c r="L305" s="3"/>
@@ -7250,7 +7288,7 @@
       <c r="F306" s="4"/>
       <c r="G306" s="4"/>
       <c r="H306" s="4"/>
-      <c r="I306" s="14"/>
+      <c r="I306" s="13"/>
       <c r="J306" s="4"/>
       <c r="K306" s="4"/>
       <c r="L306" s="4"/>
@@ -7265,7 +7303,7 @@
       <c r="F307" s="3"/>
       <c r="G307" s="3"/>
       <c r="H307" s="3"/>
-      <c r="I307" s="15"/>
+      <c r="I307" s="14"/>
       <c r="J307" s="3"/>
       <c r="K307" s="3"/>
       <c r="L307" s="3"/>
@@ -7280,7 +7318,7 @@
       <c r="F308" s="4"/>
       <c r="G308" s="4"/>
       <c r="H308" s="4"/>
-      <c r="I308" s="14"/>
+      <c r="I308" s="13"/>
       <c r="J308" s="4"/>
       <c r="K308" s="4"/>
       <c r="L308" s="4"/>
@@ -7295,7 +7333,7 @@
       <c r="F309" s="3"/>
       <c r="G309" s="3"/>
       <c r="H309" s="3"/>
-      <c r="I309" s="15"/>
+      <c r="I309" s="14"/>
       <c r="J309" s="3"/>
       <c r="K309" s="3"/>
       <c r="L309" s="3"/>
@@ -7310,7 +7348,7 @@
       <c r="F310" s="4"/>
       <c r="G310" s="4"/>
       <c r="H310" s="4"/>
-      <c r="I310" s="14"/>
+      <c r="I310" s="13"/>
       <c r="J310" s="4"/>
       <c r="K310" s="4"/>
       <c r="L310" s="4"/>
@@ -7325,7 +7363,7 @@
       <c r="F311" s="3"/>
       <c r="G311" s="3"/>
       <c r="H311" s="3"/>
-      <c r="I311" s="15"/>
+      <c r="I311" s="14"/>
       <c r="J311" s="3"/>
       <c r="K311" s="3"/>
       <c r="L311" s="3"/>
@@ -7340,7 +7378,7 @@
       <c r="F312" s="4"/>
       <c r="G312" s="4"/>
       <c r="H312" s="4"/>
-      <c r="I312" s="14"/>
+      <c r="I312" s="13"/>
       <c r="J312" s="4"/>
       <c r="K312" s="4"/>
       <c r="L312" s="4"/>
@@ -7355,7 +7393,7 @@
       <c r="F313" s="3"/>
       <c r="G313" s="3"/>
       <c r="H313" s="3"/>
-      <c r="I313" s="15"/>
+      <c r="I313" s="14"/>
       <c r="J313" s="3"/>
       <c r="K313" s="3"/>
       <c r="L313" s="3"/>
@@ -7370,7 +7408,7 @@
       <c r="F314" s="4"/>
       <c r="G314" s="4"/>
       <c r="H314" s="4"/>
-      <c r="I314" s="14"/>
+      <c r="I314" s="13"/>
       <c r="J314" s="4"/>
       <c r="K314" s="4"/>
       <c r="L314" s="4"/>
@@ -7385,7 +7423,7 @@
       <c r="F315" s="3"/>
       <c r="G315" s="3"/>
       <c r="H315" s="3"/>
-      <c r="I315" s="15"/>
+      <c r="I315" s="14"/>
       <c r="J315" s="3"/>
       <c r="K315" s="3"/>
       <c r="L315" s="3"/>
@@ -7400,7 +7438,7 @@
       <c r="F316" s="4"/>
       <c r="G316" s="4"/>
       <c r="H316" s="4"/>
-      <c r="I316" s="14"/>
+      <c r="I316" s="13"/>
       <c r="J316" s="4"/>
       <c r="K316" s="4"/>
       <c r="L316" s="4"/>
@@ -7415,7 +7453,7 @@
       <c r="F317" s="3"/>
       <c r="G317" s="3"/>
       <c r="H317" s="3"/>
-      <c r="I317" s="15"/>
+      <c r="I317" s="14"/>
       <c r="J317" s="3"/>
       <c r="K317" s="3"/>
       <c r="L317" s="3"/>
@@ -7430,7 +7468,7 @@
       <c r="F318" s="4"/>
       <c r="G318" s="4"/>
       <c r="H318" s="4"/>
-      <c r="I318" s="14"/>
+      <c r="I318" s="13"/>
       <c r="J318" s="4"/>
       <c r="K318" s="4"/>
       <c r="L318" s="4"/>
@@ -7445,7 +7483,7 @@
       <c r="F319" s="3"/>
       <c r="G319" s="3"/>
       <c r="H319" s="3"/>
-      <c r="I319" s="15"/>
+      <c r="I319" s="14"/>
       <c r="J319" s="3"/>
       <c r="K319" s="3"/>
       <c r="L319" s="3"/>
@@ -7460,7 +7498,7 @@
       <c r="F320" s="4"/>
       <c r="G320" s="4"/>
       <c r="H320" s="4"/>
-      <c r="I320" s="14"/>
+      <c r="I320" s="13"/>
       <c r="J320" s="4"/>
       <c r="K320" s="4"/>
       <c r="L320" s="4"/>
@@ -7475,7 +7513,7 @@
       <c r="F321" s="3"/>
       <c r="G321" s="3"/>
       <c r="H321" s="3"/>
-      <c r="I321" s="15"/>
+      <c r="I321" s="14"/>
       <c r="J321" s="3"/>
       <c r="K321" s="3"/>
       <c r="L321" s="3"/>
@@ -7490,7 +7528,7 @@
       <c r="F322" s="4"/>
       <c r="G322" s="4"/>
       <c r="H322" s="4"/>
-      <c r="I322" s="14"/>
+      <c r="I322" s="13"/>
       <c r="J322" s="4"/>
       <c r="K322" s="4"/>
       <c r="L322" s="4"/>
@@ -7505,7 +7543,7 @@
       <c r="F323" s="3"/>
       <c r="G323" s="3"/>
       <c r="H323" s="3"/>
-      <c r="I323" s="15"/>
+      <c r="I323" s="14"/>
       <c r="J323" s="3"/>
       <c r="K323" s="3"/>
       <c r="L323" s="3"/>
@@ -7520,7 +7558,7 @@
       <c r="F324" s="4"/>
       <c r="G324" s="4"/>
       <c r="H324" s="4"/>
-      <c r="I324" s="14"/>
+      <c r="I324" s="13"/>
       <c r="J324" s="4"/>
       <c r="K324" s="4"/>
       <c r="L324" s="4"/>
@@ -7535,7 +7573,7 @@
       <c r="F325" s="3"/>
       <c r="G325" s="3"/>
       <c r="H325" s="3"/>
-      <c r="I325" s="15"/>
+      <c r="I325" s="14"/>
       <c r="J325" s="3"/>
       <c r="K325" s="3"/>
       <c r="L325" s="3"/>
@@ -7550,7 +7588,7 @@
       <c r="F326" s="4"/>
       <c r="G326" s="4"/>
       <c r="H326" s="4"/>
-      <c r="I326" s="14"/>
+      <c r="I326" s="13"/>
       <c r="J326" s="4"/>
       <c r="K326" s="4"/>
       <c r="L326" s="4"/>
@@ -7565,7 +7603,7 @@
       <c r="F327" s="3"/>
       <c r="G327" s="3"/>
       <c r="H327" s="3"/>
-      <c r="I327" s="15"/>
+      <c r="I327" s="14"/>
       <c r="J327" s="3"/>
       <c r="K327" s="3"/>
       <c r="L327" s="3"/>
@@ -7580,7 +7618,7 @@
       <c r="F328" s="4"/>
       <c r="G328" s="4"/>
       <c r="H328" s="4"/>
-      <c r="I328" s="14"/>
+      <c r="I328" s="13"/>
       <c r="J328" s="4"/>
       <c r="K328" s="4"/>
       <c r="L328" s="4"/>
@@ -7595,7 +7633,7 @@
       <c r="F329" s="3"/>
       <c r="G329" s="3"/>
       <c r="H329" s="3"/>
-      <c r="I329" s="15"/>
+      <c r="I329" s="14"/>
       <c r="J329" s="3"/>
       <c r="K329" s="3"/>
       <c r="L329" s="3"/>
@@ -7610,7 +7648,7 @@
       <c r="F330" s="4"/>
       <c r="G330" s="4"/>
       <c r="H330" s="4"/>
-      <c r="I330" s="14"/>
+      <c r="I330" s="13"/>
       <c r="J330" s="4"/>
       <c r="K330" s="4"/>
       <c r="L330" s="4"/>
@@ -7625,7 +7663,7 @@
       <c r="F331" s="3"/>
       <c r="G331" s="3"/>
       <c r="H331" s="3"/>
-      <c r="I331" s="15"/>
+      <c r="I331" s="14"/>
       <c r="J331" s="3"/>
       <c r="K331" s="3"/>
       <c r="L331" s="3"/>
@@ -7640,7 +7678,7 @@
       <c r="F332" s="4"/>
       <c r="G332" s="4"/>
       <c r="H332" s="4"/>
-      <c r="I332" s="14"/>
+      <c r="I332" s="13"/>
       <c r="J332" s="4"/>
       <c r="K332" s="4"/>
       <c r="L332" s="4"/>
@@ -7655,7 +7693,7 @@
       <c r="F333" s="3"/>
       <c r="G333" s="3"/>
       <c r="H333" s="3"/>
-      <c r="I333" s="15"/>
+      <c r="I333" s="14"/>
       <c r="J333" s="3"/>
       <c r="K333" s="3"/>
       <c r="L333" s="3"/>
@@ -7670,7 +7708,7 @@
       <c r="F334" s="4"/>
       <c r="G334" s="4"/>
       <c r="H334" s="4"/>
-      <c r="I334" s="14"/>
+      <c r="I334" s="13"/>
       <c r="J334" s="4"/>
       <c r="K334" s="4"/>
       <c r="L334" s="4"/>
@@ -7685,7 +7723,7 @@
       <c r="F335" s="3"/>
       <c r="G335" s="3"/>
       <c r="H335" s="3"/>
-      <c r="I335" s="15"/>
+      <c r="I335" s="14"/>
       <c r="J335" s="3"/>
       <c r="K335" s="3"/>
       <c r="L335" s="3"/>
@@ -7700,7 +7738,7 @@
       <c r="F336" s="4"/>
       <c r="G336" s="4"/>
       <c r="H336" s="4"/>
-      <c r="I336" s="14"/>
+      <c r="I336" s="13"/>
       <c r="J336" s="4"/>
       <c r="K336" s="4"/>
       <c r="L336" s="4"/>
@@ -7715,7 +7753,7 @@
       <c r="F337" s="3"/>
       <c r="G337" s="3"/>
       <c r="H337" s="3"/>
-      <c r="I337" s="15"/>
+      <c r="I337" s="14"/>
       <c r="J337" s="3"/>
       <c r="K337" s="3"/>
       <c r="L337" s="3"/>
@@ -7730,7 +7768,7 @@
       <c r="F338" s="4"/>
       <c r="G338" s="4"/>
       <c r="H338" s="4"/>
-      <c r="I338" s="14"/>
+      <c r="I338" s="13"/>
       <c r="J338" s="4"/>
       <c r="K338" s="4"/>
       <c r="L338" s="4"/>
@@ -7745,7 +7783,7 @@
       <c r="F339" s="3"/>
       <c r="G339" s="3"/>
       <c r="H339" s="3"/>
-      <c r="I339" s="15"/>
+      <c r="I339" s="14"/>
       <c r="J339" s="3"/>
       <c r="K339" s="3"/>
       <c r="L339" s="3"/>
@@ -7760,7 +7798,7 @@
       <c r="F340" s="4"/>
       <c r="G340" s="4"/>
       <c r="H340" s="4"/>
-      <c r="I340" s="14"/>
+      <c r="I340" s="13"/>
       <c r="J340" s="4"/>
       <c r="K340" s="4"/>
       <c r="L340" s="4"/>
@@ -7775,7 +7813,7 @@
       <c r="F341" s="3"/>
       <c r="G341" s="3"/>
       <c r="H341" s="3"/>
-      <c r="I341" s="15"/>
+      <c r="I341" s="14"/>
       <c r="J341" s="3"/>
       <c r="K341" s="3"/>
       <c r="L341" s="3"/>
@@ -7790,7 +7828,7 @@
       <c r="F342" s="4"/>
       <c r="G342" s="4"/>
       <c r="H342" s="4"/>
-      <c r="I342" s="14"/>
+      <c r="I342" s="13"/>
       <c r="J342" s="4"/>
       <c r="K342" s="4"/>
       <c r="L342" s="4"/>
@@ -7805,7 +7843,7 @@
       <c r="F343" s="3"/>
       <c r="G343" s="3"/>
       <c r="H343" s="3"/>
-      <c r="I343" s="15"/>
+      <c r="I343" s="14"/>
       <c r="J343" s="3"/>
       <c r="K343" s="3"/>
       <c r="L343" s="3"/>
@@ -7820,7 +7858,7 @@
       <c r="F344" s="4"/>
       <c r="G344" s="4"/>
       <c r="H344" s="4"/>
-      <c r="I344" s="14"/>
+      <c r="I344" s="13"/>
       <c r="J344" s="4"/>
       <c r="K344" s="4"/>
       <c r="L344" s="4"/>
@@ -7835,7 +7873,7 @@
       <c r="F345" s="3"/>
       <c r="G345" s="3"/>
       <c r="H345" s="3"/>
-      <c r="I345" s="15"/>
+      <c r="I345" s="14"/>
       <c r="J345" s="3"/>
       <c r="K345" s="3"/>
       <c r="L345" s="3"/>
@@ -7850,7 +7888,7 @@
       <c r="F346" s="4"/>
       <c r="G346" s="4"/>
       <c r="H346" s="4"/>
-      <c r="I346" s="14"/>
+      <c r="I346" s="13"/>
       <c r="J346" s="4"/>
       <c r="K346" s="4"/>
       <c r="L346" s="4"/>
@@ -7865,7 +7903,7 @@
       <c r="F347" s="3"/>
       <c r="G347" s="3"/>
       <c r="H347" s="3"/>
-      <c r="I347" s="15"/>
+      <c r="I347" s="14"/>
       <c r="J347" s="3"/>
       <c r="K347" s="3"/>
       <c r="L347" s="3"/>
@@ -7880,7 +7918,7 @@
       <c r="F348" s="4"/>
       <c r="G348" s="4"/>
       <c r="H348" s="4"/>
-      <c r="I348" s="14"/>
+      <c r="I348" s="13"/>
       <c r="J348" s="4"/>
       <c r="K348" s="4"/>
       <c r="L348" s="4"/>
@@ -7895,7 +7933,7 @@
       <c r="F349" s="3"/>
       <c r="G349" s="3"/>
       <c r="H349" s="3"/>
-      <c r="I349" s="15"/>
+      <c r="I349" s="14"/>
       <c r="J349" s="3"/>
       <c r="K349" s="3"/>
       <c r="L349" s="3"/>
@@ -7910,7 +7948,7 @@
       <c r="F350" s="4"/>
       <c r="G350" s="4"/>
       <c r="H350" s="4"/>
-      <c r="I350" s="14"/>
+      <c r="I350" s="13"/>
       <c r="J350" s="4"/>
       <c r="K350" s="4"/>
       <c r="L350" s="4"/>
@@ -7925,7 +7963,7 @@
       <c r="F351" s="3"/>
       <c r="G351" s="3"/>
       <c r="H351" s="3"/>
-      <c r="I351" s="15"/>
+      <c r="I351" s="14"/>
       <c r="J351" s="3"/>
       <c r="K351" s="3"/>
       <c r="L351" s="3"/>
@@ -7940,7 +7978,7 @@
       <c r="F352" s="4"/>
       <c r="G352" s="4"/>
       <c r="H352" s="4"/>
-      <c r="I352" s="14"/>
+      <c r="I352" s="13"/>
       <c r="J352" s="4"/>
       <c r="K352" s="4"/>
       <c r="L352" s="4"/>
@@ -7955,7 +7993,7 @@
       <c r="F353" s="3"/>
       <c r="G353" s="3"/>
       <c r="H353" s="3"/>
-      <c r="I353" s="15"/>
+      <c r="I353" s="14"/>
       <c r="J353" s="3"/>
       <c r="K353" s="3"/>
       <c r="L353" s="3"/>
@@ -7970,7 +8008,7 @@
       <c r="F354" s="4"/>
       <c r="G354" s="4"/>
       <c r="H354" s="4"/>
-      <c r="I354" s="14"/>
+      <c r="I354" s="13"/>
       <c r="J354" s="4"/>
       <c r="K354" s="4"/>
       <c r="L354" s="4"/>
@@ -7985,7 +8023,7 @@
       <c r="F355" s="3"/>
       <c r="G355" s="3"/>
       <c r="H355" s="3"/>
-      <c r="I355" s="15"/>
+      <c r="I355" s="14"/>
       <c r="J355" s="3"/>
       <c r="K355" s="3"/>
       <c r="L355" s="3"/>
@@ -8000,7 +8038,7 @@
       <c r="F356" s="4"/>
       <c r="G356" s="4"/>
       <c r="H356" s="4"/>
-      <c r="I356" s="14"/>
+      <c r="I356" s="13"/>
       <c r="J356" s="4"/>
       <c r="K356" s="4"/>
       <c r="L356" s="4"/>
@@ -8015,7 +8053,7 @@
       <c r="F357" s="3"/>
       <c r="G357" s="3"/>
       <c r="H357" s="3"/>
-      <c r="I357" s="15"/>
+      <c r="I357" s="14"/>
       <c r="J357" s="3"/>
       <c r="K357" s="3"/>
       <c r="L357" s="3"/>
@@ -8030,7 +8068,7 @@
       <c r="F358" s="4"/>
       <c r="G358" s="4"/>
       <c r="H358" s="4"/>
-      <c r="I358" s="14"/>
+      <c r="I358" s="13"/>
       <c r="J358" s="4"/>
       <c r="K358" s="4"/>
       <c r="L358" s="4"/>
@@ -8045,7 +8083,7 @@
       <c r="F359" s="3"/>
       <c r="G359" s="3"/>
       <c r="H359" s="3"/>
-      <c r="I359" s="15"/>
+      <c r="I359" s="14"/>
       <c r="J359" s="3"/>
       <c r="K359" s="3"/>
       <c r="L359" s="3"/>
@@ -8060,7 +8098,7 @@
       <c r="F360" s="4"/>
       <c r="G360" s="4"/>
       <c r="H360" s="4"/>
-      <c r="I360" s="14"/>
+      <c r="I360" s="13"/>
       <c r="J360" s="4"/>
       <c r="K360" s="4"/>
       <c r="L360" s="4"/>
@@ -8075,7 +8113,7 @@
       <c r="F361" s="3"/>
       <c r="G361" s="3"/>
       <c r="H361" s="3"/>
-      <c r="I361" s="15"/>
+      <c r="I361" s="14"/>
       <c r="J361" s="3"/>
       <c r="K361" s="3"/>
       <c r="L361" s="3"/>
@@ -8090,7 +8128,7 @@
       <c r="F362" s="4"/>
       <c r="G362" s="4"/>
       <c r="H362" s="4"/>
-      <c r="I362" s="14"/>
+      <c r="I362" s="13"/>
       <c r="J362" s="4"/>
       <c r="K362" s="4"/>
       <c r="L362" s="4"/>
@@ -8105,7 +8143,7 @@
       <c r="F363" s="3"/>
       <c r="G363" s="3"/>
       <c r="H363" s="3"/>
-      <c r="I363" s="15"/>
+      <c r="I363" s="14"/>
       <c r="J363" s="3"/>
       <c r="K363" s="3"/>
       <c r="L363" s="3"/>
@@ -8120,7 +8158,7 @@
       <c r="F364" s="4"/>
       <c r="G364" s="4"/>
       <c r="H364" s="4"/>
-      <c r="I364" s="14"/>
+      <c r="I364" s="13"/>
       <c r="J364" s="4"/>
       <c r="K364" s="4"/>
       <c r="L364" s="4"/>
@@ -8135,7 +8173,7 @@
       <c r="F365" s="3"/>
       <c r="G365" s="3"/>
       <c r="H365" s="3"/>
-      <c r="I365" s="15"/>
+      <c r="I365" s="14"/>
       <c r="J365" s="3"/>
       <c r="K365" s="3"/>
       <c r="L365" s="3"/>
@@ -8150,7 +8188,7 @@
       <c r="F366" s="4"/>
       <c r="G366" s="4"/>
       <c r="H366" s="4"/>
-      <c r="I366" s="14"/>
+      <c r="I366" s="13"/>
       <c r="J366" s="4"/>
       <c r="K366" s="4"/>
       <c r="L366" s="4"/>
@@ -8165,7 +8203,7 @@
       <c r="F367" s="3"/>
       <c r="G367" s="3"/>
       <c r="H367" s="3"/>
-      <c r="I367" s="15"/>
+      <c r="I367" s="14"/>
       <c r="J367" s="3"/>
       <c r="K367" s="3"/>
       <c r="L367" s="3"/>
@@ -8180,7 +8218,7 @@
       <c r="F368" s="4"/>
       <c r="G368" s="4"/>
       <c r="H368" s="4"/>
-      <c r="I368" s="14"/>
+      <c r="I368" s="13"/>
       <c r="J368" s="4"/>
       <c r="K368" s="4"/>
       <c r="L368" s="4"/>
@@ -8195,7 +8233,7 @@
       <c r="F369" s="3"/>
       <c r="G369" s="3"/>
       <c r="H369" s="3"/>
-      <c r="I369" s="15"/>
+      <c r="I369" s="14"/>
       <c r="J369" s="3"/>
       <c r="K369" s="3"/>
       <c r="L369" s="3"/>
@@ -8210,7 +8248,7 @@
       <c r="F370" s="4"/>
       <c r="G370" s="4"/>
       <c r="H370" s="4"/>
-      <c r="I370" s="14"/>
+      <c r="I370" s="13"/>
       <c r="J370" s="4"/>
       <c r="K370" s="4"/>
       <c r="L370" s="4"/>
@@ -8225,7 +8263,7 @@
       <c r="F371" s="3"/>
       <c r="G371" s="3"/>
       <c r="H371" s="3"/>
-      <c r="I371" s="15"/>
+      <c r="I371" s="14"/>
       <c r="J371" s="3"/>
       <c r="K371" s="3"/>
       <c r="L371" s="3"/>
@@ -8240,7 +8278,7 @@
       <c r="F372" s="4"/>
       <c r="G372" s="4"/>
       <c r="H372" s="4"/>
-      <c r="I372" s="14"/>
+      <c r="I372" s="13"/>
       <c r="J372" s="4"/>
       <c r="K372" s="4"/>
       <c r="L372" s="4"/>
@@ -8255,7 +8293,7 @@
       <c r="F373" s="3"/>
       <c r="G373" s="3"/>
       <c r="H373" s="3"/>
-      <c r="I373" s="15"/>
+      <c r="I373" s="14"/>
       <c r="J373" s="3"/>
       <c r="K373" s="3"/>
       <c r="L373" s="3"/>
@@ -8270,7 +8308,7 @@
       <c r="F374" s="4"/>
       <c r="G374" s="4"/>
       <c r="H374" s="4"/>
-      <c r="I374" s="14"/>
+      <c r="I374" s="13"/>
       <c r="J374" s="4"/>
       <c r="K374" s="4"/>
       <c r="L374" s="4"/>
@@ -8285,7 +8323,7 @@
       <c r="F375" s="3"/>
       <c r="G375" s="3"/>
       <c r="H375" s="3"/>
-      <c r="I375" s="15"/>
+      <c r="I375" s="14"/>
       <c r="J375" s="3"/>
       <c r="K375" s="3"/>
       <c r="L375" s="3"/>
@@ -8300,7 +8338,7 @@
       <c r="F376" s="4"/>
       <c r="G376" s="4"/>
       <c r="H376" s="4"/>
-      <c r="I376" s="14"/>
+      <c r="I376" s="13"/>
       <c r="J376" s="4"/>
       <c r="K376" s="4"/>
       <c r="L376" s="4"/>
@@ -8315,7 +8353,7 @@
       <c r="F377" s="3"/>
       <c r="G377" s="3"/>
       <c r="H377" s="3"/>
-      <c r="I377" s="15"/>
+      <c r="I377" s="14"/>
       <c r="J377" s="3"/>
       <c r="K377" s="3"/>
       <c r="L377" s="3"/>
@@ -8330,7 +8368,7 @@
       <c r="F378" s="4"/>
       <c r="G378" s="4"/>
       <c r="H378" s="4"/>
-      <c r="I378" s="14"/>
+      <c r="I378" s="13"/>
       <c r="J378" s="4"/>
       <c r="K378" s="4"/>
       <c r="L378" s="4"/>
@@ -8345,7 +8383,7 @@
       <c r="F379" s="3"/>
       <c r="G379" s="3"/>
       <c r="H379" s="3"/>
-      <c r="I379" s="15"/>
+      <c r="I379" s="14"/>
       <c r="J379" s="3"/>
       <c r="K379" s="3"/>
       <c r="L379" s="3"/>
@@ -8360,7 +8398,7 @@
       <c r="F380" s="4"/>
       <c r="G380" s="4"/>
       <c r="H380" s="4"/>
-      <c r="I380" s="14"/>
+      <c r="I380" s="13"/>
       <c r="J380" s="4"/>
       <c r="K380" s="4"/>
       <c r="L380" s="4"/>
@@ -8375,7 +8413,7 @@
       <c r="F381" s="3"/>
       <c r="G381" s="3"/>
       <c r="H381" s="3"/>
-      <c r="I381" s="15"/>
+      <c r="I381" s="14"/>
       <c r="J381" s="3"/>
       <c r="K381" s="3"/>
       <c r="L381" s="3"/>
@@ -8390,7 +8428,7 @@
       <c r="F382" s="4"/>
       <c r="G382" s="4"/>
       <c r="H382" s="4"/>
-      <c r="I382" s="14"/>
+      <c r="I382" s="13"/>
       <c r="J382" s="4"/>
       <c r="K382" s="4"/>
       <c r="L382" s="4"/>
@@ -8405,7 +8443,7 @@
       <c r="F383" s="3"/>
       <c r="G383" s="3"/>
       <c r="H383" s="3"/>
-      <c r="I383" s="15"/>
+      <c r="I383" s="14"/>
       <c r="J383" s="3"/>
       <c r="K383" s="3"/>
       <c r="L383" s="3"/>
@@ -8420,7 +8458,7 @@
       <c r="F384" s="4"/>
       <c r="G384" s="4"/>
       <c r="H384" s="4"/>
-      <c r="I384" s="14"/>
+      <c r="I384" s="13"/>
       <c r="J384" s="4"/>
       <c r="K384" s="4"/>
       <c r="L384" s="4"/>
@@ -8435,7 +8473,7 @@
       <c r="F385" s="3"/>
       <c r="G385" s="3"/>
       <c r="H385" s="3"/>
-      <c r="I385" s="15"/>
+      <c r="I385" s="14"/>
       <c r="J385" s="3"/>
       <c r="K385" s="3"/>
       <c r="L385" s="3"/>
@@ -8450,7 +8488,7 @@
       <c r="F386" s="4"/>
       <c r="G386" s="4"/>
       <c r="H386" s="4"/>
-      <c r="I386" s="14"/>
+      <c r="I386" s="13"/>
       <c r="J386" s="4"/>
       <c r="K386" s="4"/>
       <c r="L386" s="4"/>
@@ -8465,7 +8503,7 @@
       <c r="F387" s="3"/>
       <c r="G387" s="3"/>
       <c r="H387" s="3"/>
-      <c r="I387" s="15"/>
+      <c r="I387" s="14"/>
       <c r="J387" s="3"/>
       <c r="K387" s="3"/>
       <c r="L387" s="3"/>
@@ -8480,7 +8518,7 @@
       <c r="F388" s="4"/>
       <c r="G388" s="4"/>
       <c r="H388" s="4"/>
-      <c r="I388" s="14"/>
+      <c r="I388" s="13"/>
       <c r="J388" s="4"/>
       <c r="K388" s="4"/>
       <c r="L388" s="4"/>
@@ -8495,7 +8533,7 @@
       <c r="F389" s="3"/>
       <c r="G389" s="3"/>
       <c r="H389" s="3"/>
-      <c r="I389" s="15"/>
+      <c r="I389" s="14"/>
       <c r="J389" s="3"/>
       <c r="K389" s="3"/>
       <c r="L389" s="3"/>
@@ -8510,7 +8548,7 @@
       <c r="F390" s="4"/>
       <c r="G390" s="4"/>
       <c r="H390" s="4"/>
-      <c r="I390" s="14"/>
+      <c r="I390" s="13"/>
       <c r="J390" s="4"/>
       <c r="K390" s="4"/>
       <c r="L390" s="4"/>
@@ -8525,7 +8563,7 @@
       <c r="F391" s="3"/>
       <c r="G391" s="3"/>
       <c r="H391" s="3"/>
-      <c r="I391" s="15"/>
+      <c r="I391" s="14"/>
       <c r="J391" s="3"/>
       <c r="K391" s="3"/>
       <c r="L391" s="3"/>
@@ -8540,7 +8578,7 @@
       <c r="F392" s="4"/>
       <c r="G392" s="4"/>
       <c r="H392" s="4"/>
-      <c r="I392" s="14"/>
+      <c r="I392" s="13"/>
       <c r="J392" s="4"/>
       <c r="K392" s="4"/>
       <c r="L392" s="4"/>
@@ -8555,7 +8593,7 @@
       <c r="F393" s="3"/>
       <c r="G393" s="3"/>
       <c r="H393" s="3"/>
-      <c r="I393" s="15"/>
+      <c r="I393" s="14"/>
       <c r="J393" s="3"/>
       <c r="K393" s="3"/>
       <c r="L393" s="3"/>
@@ -8570,7 +8608,7 @@
       <c r="F394" s="4"/>
       <c r="G394" s="4"/>
       <c r="H394" s="4"/>
-      <c r="I394" s="14"/>
+      <c r="I394" s="13"/>
       <c r="J394" s="4"/>
       <c r="K394" s="4"/>
       <c r="L394" s="4"/>
@@ -8585,7 +8623,7 @@
       <c r="F395" s="3"/>
       <c r="G395" s="3"/>
       <c r="H395" s="3"/>
-      <c r="I395" s="15"/>
+      <c r="I395" s="14"/>
       <c r="J395" s="3"/>
       <c r="K395" s="3"/>
       <c r="L395" s="3"/>
@@ -8600,7 +8638,7 @@
       <c r="F396" s="4"/>
       <c r="G396" s="4"/>
       <c r="H396" s="4"/>
-      <c r="I396" s="14"/>
+      <c r="I396" s="13"/>
       <c r="J396" s="4"/>
       <c r="K396" s="4"/>
       <c r="L396" s="4"/>
@@ -8615,7 +8653,7 @@
       <c r="F397" s="3"/>
       <c r="G397" s="3"/>
       <c r="H397" s="3"/>
-      <c r="I397" s="15"/>
+      <c r="I397" s="14"/>
       <c r="J397" s="3"/>
       <c r="K397" s="3"/>
       <c r="L397" s="3"/>
@@ -8630,7 +8668,7 @@
       <c r="F398" s="4"/>
       <c r="G398" s="4"/>
       <c r="H398" s="4"/>
-      <c r="I398" s="14"/>
+      <c r="I398" s="13"/>
       <c r="J398" s="4"/>
       <c r="K398" s="4"/>
       <c r="L398" s="4"/>
@@ -8645,7 +8683,7 @@
       <c r="F399" s="3"/>
       <c r="G399" s="3"/>
       <c r="H399" s="3"/>
-      <c r="I399" s="15"/>
+      <c r="I399" s="14"/>
       <c r="J399" s="3"/>
       <c r="K399" s="3"/>
       <c r="L399" s="3"/>
@@ -8660,7 +8698,7 @@
       <c r="F400" s="4"/>
       <c r="G400" s="4"/>
       <c r="H400" s="4"/>
-      <c r="I400" s="14"/>
+      <c r="I400" s="13"/>
       <c r="J400" s="4"/>
       <c r="K400" s="4"/>
       <c r="L400" s="4"/>
@@ -8675,7 +8713,7 @@
       <c r="F401" s="3"/>
       <c r="G401" s="3"/>
       <c r="H401" s="3"/>
-      <c r="I401" s="15"/>
+      <c r="I401" s="14"/>
       <c r="J401" s="3"/>
       <c r="K401" s="3"/>
       <c r="L401" s="3"/>
@@ -8690,7 +8728,7 @@
       <c r="F402" s="4"/>
       <c r="G402" s="4"/>
       <c r="H402" s="4"/>
-      <c r="I402" s="14"/>
+      <c r="I402" s="13"/>
       <c r="J402" s="4"/>
       <c r="K402" s="4"/>
       <c r="L402" s="4"/>
@@ -8705,7 +8743,7 @@
       <c r="F403" s="3"/>
       <c r="G403" s="3"/>
       <c r="H403" s="3"/>
-      <c r="I403" s="15"/>
+      <c r="I403" s="14"/>
       <c r="J403" s="3"/>
       <c r="K403" s="3"/>
       <c r="L403" s="3"/>
@@ -8720,7 +8758,7 @@
       <c r="F404" s="4"/>
       <c r="G404" s="4"/>
       <c r="H404" s="4"/>
-      <c r="I404" s="14"/>
+      <c r="I404" s="13"/>
       <c r="J404" s="4"/>
       <c r="K404" s="4"/>
       <c r="L404" s="4"/>
@@ -8735,7 +8773,7 @@
       <c r="F405" s="3"/>
       <c r="G405" s="3"/>
       <c r="H405" s="3"/>
-      <c r="I405" s="15"/>
+      <c r="I405" s="14"/>
       <c r="J405" s="3"/>
       <c r="K405" s="3"/>
       <c r="L405" s="3"/>
@@ -8750,7 +8788,7 @@
       <c r="F406" s="4"/>
       <c r="G406" s="4"/>
       <c r="H406" s="4"/>
-      <c r="I406" s="14"/>
+      <c r="I406" s="13"/>
       <c r="J406" s="4"/>
       <c r="K406" s="4"/>
       <c r="L406" s="4"/>
@@ -8765,7 +8803,7 @@
       <c r="F407" s="3"/>
       <c r="G407" s="3"/>
       <c r="H407" s="3"/>
-      <c r="I407" s="15"/>
+      <c r="I407" s="14"/>
       <c r="J407" s="3"/>
       <c r="K407" s="3"/>
       <c r="L407" s="3"/>
@@ -8780,7 +8818,7 @@
       <c r="F408" s="4"/>
       <c r="G408" s="4"/>
       <c r="H408" s="4"/>
-      <c r="I408" s="14"/>
+      <c r="I408" s="13"/>
       <c r="J408" s="4"/>
       <c r="K408" s="4"/>
       <c r="L408" s="4"/>
@@ -8795,7 +8833,7 @@
       <c r="F409" s="3"/>
       <c r="G409" s="3"/>
       <c r="H409" s="3"/>
-      <c r="I409" s="15"/>
+      <c r="I409" s="14"/>
       <c r="J409" s="3"/>
       <c r="K409" s="3"/>
       <c r="L409" s="3"/>
@@ -8810,7 +8848,7 @@
       <c r="F410" s="4"/>
       <c r="G410" s="4"/>
       <c r="H410" s="4"/>
-      <c r="I410" s="14"/>
+      <c r="I410" s="13"/>
       <c r="J410" s="4"/>
       <c r="K410" s="4"/>
       <c r="L410" s="4"/>
@@ -8825,7 +8863,7 @@
       <c r="F411" s="3"/>
       <c r="G411" s="3"/>
       <c r="H411" s="3"/>
-      <c r="I411" s="15"/>
+      <c r="I411" s="14"/>
       <c r="J411" s="3"/>
       <c r="K411" s="3"/>
       <c r="L411" s="3"/>
@@ -8840,7 +8878,7 @@
       <c r="F412" s="4"/>
       <c r="G412" s="4"/>
       <c r="H412" s="4"/>
-      <c r="I412" s="14"/>
+      <c r="I412" s="13"/>
       <c r="J412" s="4"/>
       <c r="K412" s="4"/>
       <c r="L412" s="4"/>
@@ -8855,7 +8893,7 @@
       <c r="F413" s="3"/>
       <c r="G413" s="3"/>
       <c r="H413" s="3"/>
-      <c r="I413" s="15"/>
+      <c r="I413" s="14"/>
       <c r="J413" s="3"/>
       <c r="K413" s="3"/>
       <c r="L413" s="3"/>
@@ -8870,7 +8908,7 @@
       <c r="F414" s="4"/>
       <c r="G414" s="4"/>
       <c r="H414" s="4"/>
-      <c r="I414" s="14"/>
+      <c r="I414" s="13"/>
       <c r="J414" s="4"/>
       <c r="K414" s="4"/>
       <c r="L414" s="4"/>
@@ -8885,7 +8923,7 @@
       <c r="F415" s="3"/>
       <c r="G415" s="3"/>
       <c r="H415" s="3"/>
-      <c r="I415" s="15"/>
+      <c r="I415" s="14"/>
       <c r="J415" s="3"/>
       <c r="K415" s="3"/>
       <c r="L415" s="3"/>
@@ -8900,7 +8938,7 @@
       <c r="F416" s="4"/>
       <c r="G416" s="4"/>
       <c r="H416" s="4"/>
-      <c r="I416" s="14"/>
+      <c r="I416" s="13"/>
       <c r="J416" s="4"/>
       <c r="K416" s="4"/>
       <c r="L416" s="4"/>
@@ -8915,7 +8953,7 @@
       <c r="F417" s="3"/>
       <c r="G417" s="3"/>
       <c r="H417" s="3"/>
-      <c r="I417" s="15"/>
+      <c r="I417" s="14"/>
       <c r="J417" s="3"/>
       <c r="K417" s="3"/>
       <c r="L417" s="3"/>
@@ -8930,7 +8968,7 @@
       <c r="F418" s="4"/>
       <c r="G418" s="4"/>
       <c r="H418" s="4"/>
-      <c r="I418" s="14"/>
+      <c r="I418" s="13"/>
       <c r="J418" s="4"/>
       <c r="K418" s="4"/>
       <c r="L418" s="4"/>
@@ -8945,7 +8983,7 @@
       <c r="F419" s="3"/>
       <c r="G419" s="3"/>
       <c r="H419" s="3"/>
-      <c r="I419" s="15"/>
+      <c r="I419" s="14"/>
       <c r="J419" s="3"/>
       <c r="K419" s="3"/>
       <c r="L419" s="3"/>
@@ -8960,7 +8998,7 @@
       <c r="F420" s="4"/>
       <c r="G420" s="4"/>
       <c r="H420" s="4"/>
-      <c r="I420" s="14"/>
+      <c r="I420" s="13"/>
       <c r="J420" s="4"/>
       <c r="K420" s="4"/>
       <c r="L420" s="4"/>
@@ -8975,7 +9013,7 @@
       <c r="F421" s="3"/>
       <c r="G421" s="3"/>
       <c r="H421" s="3"/>
-      <c r="I421" s="15"/>
+      <c r="I421" s="14"/>
       <c r="J421" s="3"/>
       <c r="K421" s="3"/>
       <c r="L421" s="3"/>
@@ -8990,7 +9028,7 @@
       <c r="F422" s="4"/>
       <c r="G422" s="4"/>
       <c r="H422" s="4"/>
-      <c r="I422" s="14"/>
+      <c r="I422" s="13"/>
       <c r="J422" s="4"/>
       <c r="K422" s="4"/>
       <c r="L422" s="4"/>
@@ -9005,7 +9043,7 @@
       <c r="F423" s="3"/>
       <c r="G423" s="3"/>
       <c r="H423" s="3"/>
-      <c r="I423" s="15"/>
+      <c r="I423" s="14"/>
       <c r="J423" s="3"/>
       <c r="K423" s="3"/>
       <c r="L423" s="3"/>
@@ -9020,7 +9058,7 @@
       <c r="F424" s="4"/>
       <c r="G424" s="4"/>
       <c r="H424" s="4"/>
-      <c r="I424" s="14"/>
+      <c r="I424" s="13"/>
       <c r="J424" s="4"/>
       <c r="K424" s="4"/>
       <c r="L424" s="4"/>
@@ -9035,7 +9073,7 @@
       <c r="F425" s="3"/>
       <c r="G425" s="3"/>
       <c r="H425" s="3"/>
-      <c r="I425" s="15"/>
+      <c r="I425" s="14"/>
       <c r="J425" s="3"/>
       <c r="K425" s="3"/>
       <c r="L425" s="3"/>
@@ -9050,7 +9088,7 @@
       <c r="F426" s="4"/>
       <c r="G426" s="4"/>
       <c r="H426" s="4"/>
-      <c r="I426" s="14"/>
+      <c r="I426" s="13"/>
       <c r="J426" s="4"/>
       <c r="K426" s="4"/>
       <c r="L426" s="4"/>
@@ -9065,7 +9103,7 @@
       <c r="F427" s="3"/>
       <c r="G427" s="3"/>
       <c r="H427" s="3"/>
-      <c r="I427" s="15"/>
+      <c r="I427" s="14"/>
       <c r="J427" s="3"/>
       <c r="K427" s="3"/>
       <c r="L427" s="3"/>
@@ -9080,7 +9118,7 @@
       <c r="F428" s="4"/>
       <c r="G428" s="4"/>
       <c r="H428" s="4"/>
-      <c r="I428" s="14"/>
+      <c r="I428" s="13"/>
       <c r="J428" s="4"/>
       <c r="K428" s="4"/>
       <c r="L428" s="4"/>
@@ -9095,7 +9133,7 @@
       <c r="F429" s="3"/>
       <c r="G429" s="3"/>
       <c r="H429" s="3"/>
-      <c r="I429" s="15"/>
+      <c r="I429" s="14"/>
       <c r="J429" s="3"/>
       <c r="K429" s="3"/>
       <c r="L429" s="3"/>
@@ -9110,7 +9148,7 @@
       <c r="F430" s="4"/>
       <c r="G430" s="4"/>
       <c r="H430" s="4"/>
-      <c r="I430" s="14"/>
+      <c r="I430" s="13"/>
       <c r="J430" s="4"/>
       <c r="K430" s="4"/>
       <c r="L430" s="4"/>
@@ -9125,7 +9163,7 @@
       <c r="F431" s="3"/>
       <c r="G431" s="3"/>
       <c r="H431" s="3"/>
-      <c r="I431" s="15"/>
+      <c r="I431" s="14"/>
       <c r="J431" s="3"/>
       <c r="K431" s="3"/>
       <c r="L431" s="3"/>
@@ -9140,7 +9178,7 @@
       <c r="F432" s="4"/>
       <c r="G432" s="4"/>
       <c r="H432" s="4"/>
-      <c r="I432" s="14"/>
+      <c r="I432" s="13"/>
       <c r="J432" s="4"/>
       <c r="K432" s="4"/>
       <c r="L432" s="4"/>
@@ -9155,7 +9193,7 @@
       <c r="F433" s="3"/>
       <c r="G433" s="3"/>
       <c r="H433" s="3"/>
-      <c r="I433" s="15"/>
+      <c r="I433" s="14"/>
       <c r="J433" s="3"/>
       <c r="K433" s="3"/>
       <c r="L433" s="3"/>
@@ -9170,7 +9208,7 @@
       <c r="F434" s="4"/>
       <c r="G434" s="4"/>
       <c r="H434" s="4"/>
-      <c r="I434" s="14"/>
+      <c r="I434" s="13"/>
       <c r="J434" s="4"/>
       <c r="K434" s="4"/>
       <c r="L434" s="4"/>
@@ -9185,7 +9223,7 @@
       <c r="F435" s="3"/>
       <c r="G435" s="3"/>
       <c r="H435" s="3"/>
-      <c r="I435" s="15"/>
+      <c r="I435" s="14"/>
       <c r="J435" s="3"/>
       <c r="K435" s="3"/>
       <c r="L435" s="3"/>
@@ -9200,7 +9238,7 @@
       <c r="F436" s="4"/>
       <c r="G436" s="4"/>
       <c r="H436" s="4"/>
-      <c r="I436" s="14"/>
+      <c r="I436" s="13"/>
       <c r="J436" s="4"/>
       <c r="K436" s="4"/>
       <c r="L436" s="4"/>
@@ -9215,7 +9253,7 @@
       <c r="F437" s="3"/>
       <c r="G437" s="3"/>
       <c r="H437" s="3"/>
-      <c r="I437" s="15"/>
+      <c r="I437" s="14"/>
       <c r="J437" s="3"/>
       <c r="K437" s="3"/>
       <c r="L437" s="3"/>
@@ -9230,7 +9268,7 @@
       <c r="F438" s="4"/>
       <c r="G438" s="4"/>
       <c r="H438" s="4"/>
-      <c r="I438" s="14"/>
+      <c r="I438" s="13"/>
       <c r="J438" s="4"/>
       <c r="K438" s="4"/>
       <c r="L438" s="4"/>
@@ -9245,7 +9283,7 @@
       <c r="F439" s="3"/>
       <c r="G439" s="3"/>
       <c r="H439" s="3"/>
-      <c r="I439" s="15"/>
+      <c r="I439" s="14"/>
       <c r="J439" s="3"/>
       <c r="K439" s="3"/>
       <c r="L439" s="3"/>
@@ -9260,7 +9298,7 @@
       <c r="F440" s="4"/>
       <c r="G440" s="4"/>
       <c r="H440" s="4"/>
-      <c r="I440" s="14"/>
+      <c r="I440" s="13"/>
       <c r="J440" s="4"/>
       <c r="K440" s="4"/>
       <c r="L440" s="4"/>
@@ -9275,7 +9313,7 @@
       <c r="F441" s="3"/>
       <c r="G441" s="3"/>
       <c r="H441" s="3"/>
-      <c r="I441" s="15"/>
+      <c r="I441" s="14"/>
       <c r="J441" s="3"/>
       <c r="K441" s="3"/>
       <c r="L441" s="3"/>
@@ -9290,7 +9328,7 @@
       <c r="F442" s="4"/>
       <c r="G442" s="4"/>
       <c r="H442" s="4"/>
-      <c r="I442" s="14"/>
+      <c r="I442" s="13"/>
       <c r="J442" s="4"/>
       <c r="K442" s="4"/>
       <c r="L442" s="4"/>
@@ -9305,7 +9343,7 @@
       <c r="F443" s="3"/>
       <c r="G443" s="3"/>
       <c r="H443" s="3"/>
-      <c r="I443" s="15"/>
+      <c r="I443" s="14"/>
       <c r="J443" s="3"/>
       <c r="K443" s="3"/>
       <c r="L443" s="3"/>
@@ -9320,7 +9358,7 @@
       <c r="F444" s="4"/>
       <c r="G444" s="4"/>
       <c r="H444" s="4"/>
-      <c r="I444" s="14"/>
+      <c r="I444" s="13"/>
       <c r="J444" s="4"/>
       <c r="K444" s="4"/>
       <c r="L444" s="4"/>
@@ -9335,7 +9373,7 @@
       <c r="F445" s="3"/>
       <c r="G445" s="3"/>
       <c r="H445" s="3"/>
-      <c r="I445" s="15"/>
+      <c r="I445" s="14"/>
       <c r="J445" s="3"/>
       <c r="K445" s="3"/>
       <c r="L445" s="3"/>
@@ -9350,7 +9388,7 @@
       <c r="F446" s="4"/>
       <c r="G446" s="4"/>
       <c r="H446" s="4"/>
-      <c r="I446" s="14"/>
+      <c r="I446" s="13"/>
       <c r="J446" s="4"/>
       <c r="K446" s="4"/>
       <c r="L446" s="4"/>
@@ -9365,7 +9403,7 @@
       <c r="F447" s="3"/>
       <c r="G447" s="3"/>
       <c r="H447" s="3"/>
-      <c r="I447" s="15"/>
+      <c r="I447" s="14"/>
       <c r="J447" s="3"/>
       <c r="K447" s="3"/>
       <c r="L447" s="3"/>
@@ -9380,7 +9418,7 @@
       <c r="F448" s="4"/>
       <c r="G448" s="4"/>
       <c r="H448" s="4"/>
-      <c r="I448" s="14"/>
+      <c r="I448" s="13"/>
       <c r="J448" s="4"/>
       <c r="K448" s="4"/>
       <c r="L448" s="4"/>
@@ -9395,7 +9433,7 @@
       <c r="F449" s="3"/>
       <c r="G449" s="3"/>
       <c r="H449" s="3"/>
-      <c r="I449" s="15"/>
+      <c r="I449" s="14"/>
       <c r="J449" s="3"/>
       <c r="K449" s="3"/>
       <c r="L449" s="3"/>
@@ -9410,7 +9448,7 @@
       <c r="F450" s="4"/>
       <c r="G450" s="4"/>
       <c r="H450" s="4"/>
-      <c r="I450" s="14"/>
+      <c r="I450" s="13"/>
       <c r="J450" s="4"/>
       <c r="K450" s="4"/>
       <c r="L450" s="4"/>
@@ -9425,7 +9463,7 @@
       <c r="F451" s="3"/>
       <c r="G451" s="3"/>
       <c r="H451" s="3"/>
-      <c r="I451" s="15"/>
+      <c r="I451" s="14"/>
       <c r="J451" s="3"/>
       <c r="K451" s="3"/>
       <c r="L451" s="3"/>
@@ -9440,7 +9478,7 @@
       <c r="F452" s="4"/>
       <c r="G452" s="4"/>
       <c r="H452" s="4"/>
-      <c r="I452" s="14"/>
+      <c r="I452" s="13"/>
       <c r="J452" s="4"/>
       <c r="K452" s="4"/>
       <c r="L452" s="4"/>
@@ -9455,7 +9493,7 @@
       <c r="F453" s="3"/>
       <c r="G453" s="3"/>
       <c r="H453" s="3"/>
-      <c r="I453" s="15"/>
+      <c r="I453" s="14"/>
       <c r="J453" s="3"/>
       <c r="K453" s="3"/>
       <c r="L453" s="3"/>
@@ -9470,7 +9508,7 @@
       <c r="F454" s="4"/>
       <c r="G454" s="4"/>
       <c r="H454" s="4"/>
-      <c r="I454" s="14"/>
+      <c r="I454" s="13"/>
       <c r="J454" s="4"/>
       <c r="K454" s="4"/>
       <c r="L454" s="4"/>
@@ -9485,7 +9523,7 @@
       <c r="F455" s="3"/>
       <c r="G455" s="3"/>
       <c r="H455" s="3"/>
-      <c r="I455" s="15"/>
+      <c r="I455" s="14"/>
       <c r="J455" s="3"/>
       <c r="K455" s="3"/>
       <c r="L455" s="3"/>
@@ -9500,7 +9538,7 @@
       <c r="F456" s="4"/>
       <c r="G456" s="4"/>
       <c r="H456" s="4"/>
-      <c r="I456" s="14"/>
+      <c r="I456" s="13"/>
       <c r="J456" s="4"/>
       <c r="K456" s="4"/>
       <c r="L456" s="4"/>
@@ -9515,7 +9553,7 @@
       <c r="F457" s="3"/>
       <c r="G457" s="3"/>
       <c r="H457" s="3"/>
-      <c r="I457" s="15"/>
+      <c r="I457" s="14"/>
       <c r="J457" s="3"/>
       <c r="K457" s="3"/>
       <c r="L457" s="3"/>
@@ -9530,7 +9568,7 @@
       <c r="F458" s="4"/>
       <c r="G458" s="4"/>
       <c r="H458" s="4"/>
-      <c r="I458" s="14"/>
+      <c r="I458" s="13"/>
       <c r="J458" s="4"/>
       <c r="K458" s="4"/>
       <c r="L458" s="4"/>
@@ -9545,7 +9583,7 @@
       <c r="F459" s="3"/>
       <c r="G459" s="3"/>
       <c r="H459" s="3"/>
-      <c r="I459" s="15"/>
+      <c r="I459" s="14"/>
       <c r="J459" s="3"/>
       <c r="K459" s="3"/>
       <c r="L459" s="3"/>
@@ -9560,7 +9598,7 @@
       <c r="F460" s="4"/>
       <c r="G460" s="4"/>
       <c r="H460" s="4"/>
-      <c r="I460" s="14"/>
+      <c r="I460" s="13"/>
       <c r="J460" s="4"/>
       <c r="K460" s="4"/>
       <c r="L460" s="4"/>
@@ -9575,7 +9613,7 @@
       <c r="F461" s="3"/>
       <c r="G461" s="3"/>
       <c r="H461" s="3"/>
-      <c r="I461" s="15"/>
+      <c r="I461" s="14"/>
       <c r="J461" s="3"/>
       <c r="K461" s="3"/>
       <c r="L461" s="3"/>
@@ -9590,7 +9628,7 @@
       <c r="F462" s="4"/>
       <c r="G462" s="4"/>
       <c r="H462" s="4"/>
-      <c r="I462" s="14"/>
+      <c r="I462" s="13"/>
       <c r="J462" s="4"/>
       <c r="K462" s="4"/>
       <c r="L462" s="4"/>
@@ -9605,7 +9643,7 @@
       <c r="F463" s="3"/>
       <c r="G463" s="3"/>
       <c r="H463" s="3"/>
-      <c r="I463" s="15"/>
+      <c r="I463" s="14"/>
       <c r="J463" s="3"/>
       <c r="K463" s="3"/>
       <c r="L463" s="3"/>
@@ -9620,7 +9658,7 @@
       <c r="F464" s="4"/>
       <c r="G464" s="4"/>
       <c r="H464" s="4"/>
-      <c r="I464" s="14"/>
+      <c r="I464" s="13"/>
       <c r="J464" s="4"/>
       <c r="K464" s="4"/>
       <c r="L464" s="4"/>
@@ -9635,7 +9673,7 @@
       <c r="F465" s="3"/>
       <c r="G465" s="3"/>
       <c r="H465" s="3"/>
-      <c r="I465" s="15"/>
+      <c r="I465" s="14"/>
       <c r="J465" s="3"/>
       <c r="K465" s="3"/>
       <c r="L465" s="3"/>
@@ -9650,7 +9688,7 @@
       <c r="F466" s="4"/>
       <c r="G466" s="4"/>
       <c r="H466" s="4"/>
-      <c r="I466" s="14"/>
+      <c r="I466" s="13"/>
       <c r="J466" s="4"/>
       <c r="K466" s="4"/>
       <c r="L466" s="4"/>
@@ -9665,7 +9703,7 @@
       <c r="F467" s="3"/>
       <c r="G467" s="3"/>
       <c r="H467" s="3"/>
-      <c r="I467" s="15"/>
+      <c r="I467" s="14"/>
       <c r="J467" s="3"/>
       <c r="K467" s="3"/>
       <c r="L467" s="3"/>
@@ -9680,7 +9718,7 @@
       <c r="F468" s="4"/>
       <c r="G468" s="4"/>
       <c r="H468" s="4"/>
-      <c r="I468" s="14"/>
+      <c r="I468" s="13"/>
       <c r="J468" s="4"/>
       <c r="K468" s="4"/>
       <c r="L468" s="4"/>
@@ -9695,7 +9733,7 @@
       <c r="F469" s="3"/>
       <c r="G469" s="3"/>
       <c r="H469" s="3"/>
-      <c r="I469" s="15"/>
+      <c r="I469" s="14"/>
       <c r="J469" s="3"/>
       <c r="K469" s="3"/>
       <c r="L469" s="3"/>
@@ -9710,7 +9748,7 @@
       <c r="F470" s="4"/>
       <c r="G470" s="4"/>
       <c r="H470" s="4"/>
-      <c r="I470" s="14"/>
+      <c r="I470" s="13"/>
       <c r="J470" s="4"/>
       <c r="K470" s="4"/>
       <c r="L470" s="4"/>
@@ -9725,7 +9763,7 @@
       <c r="F471" s="3"/>
       <c r="G471" s="3"/>
       <c r="H471" s="3"/>
-      <c r="I471" s="15"/>
+      <c r="I471" s="14"/>
       <c r="J471" s="3"/>
       <c r="K471" s="3"/>
       <c r="L471" s="3"/>
@@ -9740,7 +9778,7 @@
       <c r="F472" s="4"/>
       <c r="G472" s="4"/>
       <c r="H472" s="4"/>
-      <c r="I472" s="14"/>
+      <c r="I472" s="13"/>
       <c r="J472" s="4"/>
       <c r="K472" s="4"/>
       <c r="L472" s="4"/>
@@ -9755,7 +9793,7 @@
       <c r="F473" s="3"/>
       <c r="G473" s="3"/>
       <c r="H473" s="3"/>
-      <c r="I473" s="15"/>
+      <c r="I473" s="14"/>
       <c r="J473" s="3"/>
       <c r="K473" s="3"/>
       <c r="L473" s="3"/>
@@ -9770,7 +9808,7 @@
       <c r="F474" s="4"/>
       <c r="G474" s="4"/>
       <c r="H474" s="4"/>
-      <c r="I474" s="14"/>
+      <c r="I474" s="13"/>
       <c r="J474" s="4"/>
       <c r="K474" s="4"/>
       <c r="L474" s="4"/>
@@ -9785,7 +9823,7 @@
       <c r="F475" s="3"/>
       <c r="G475" s="3"/>
       <c r="H475" s="3"/>
-      <c r="I475" s="15"/>
+      <c r="I475" s="14"/>
       <c r="J475" s="3"/>
       <c r="K475" s="3"/>
       <c r="L475" s="3"/>
@@ -9800,7 +9838,7 @@
       <c r="F476" s="4"/>
       <c r="G476" s="4"/>
       <c r="H476" s="4"/>
-      <c r="I476" s="14"/>
+      <c r="I476" s="13"/>
       <c r="J476" s="4"/>
       <c r="K476" s="4"/>
       <c r="L476" s="4"/>
@@ -9815,7 +9853,7 @@
       <c r="F477" s="3"/>
       <c r="G477" s="3"/>
       <c r="H477" s="3"/>
-      <c r="I477" s="15"/>
+      <c r="I477" s="14"/>
       <c r="J477" s="3"/>
       <c r="K477" s="3"/>
       <c r="L477" s="3"/>
@@ -9830,7 +9868,7 @@
       <c r="F478" s="4"/>
       <c r="G478" s="4"/>
       <c r="H478" s="4"/>
-      <c r="I478" s="14"/>
+      <c r="I478" s="13"/>
       <c r="J478" s="4"/>
       <c r="K478" s="4"/>
       <c r="L478" s="4"/>
@@ -9845,7 +9883,7 @@
       <c r="F479" s="3"/>
       <c r="G479" s="3"/>
       <c r="H479" s="3"/>
-      <c r="I479" s="15"/>
+      <c r="I479" s="14"/>
       <c r="J479" s="3"/>
       <c r="K479" s="3"/>
       <c r="L479" s="3"/>
@@ -9860,7 +9898,7 @@
       <c r="F480" s="4"/>
       <c r="G480" s="4"/>
       <c r="H480" s="4"/>
-      <c r="I480" s="14"/>
+      <c r="I480" s="13"/>
       <c r="J480" s="4"/>
       <c r="K480" s="4"/>
       <c r="L480" s="4"/>
@@ -9875,7 +9913,7 @@
       <c r="F481" s="3"/>
       <c r="G481" s="3"/>
       <c r="H481" s="3"/>
-      <c r="I481" s="15"/>
+      <c r="I481" s="14"/>
       <c r="J481" s="3"/>
       <c r="K481" s="3"/>
       <c r="L481" s="3"/>
@@ -9890,7 +9928,7 @@
       <c r="F482" s="4"/>
       <c r="G482" s="4"/>
       <c r="H482" s="4"/>
-      <c r="I482" s="14"/>
+      <c r="I482" s="13"/>
       <c r="J482" s="4"/>
       <c r="K482" s="4"/>
       <c r="L482" s="4"/>
@@ -9905,7 +9943,7 @@
       <c r="F483" s="3"/>
       <c r="G483" s="3"/>
       <c r="H483" s="3"/>
-      <c r="I483" s="15"/>
+      <c r="I483" s="14"/>
       <c r="J483" s="3"/>
       <c r="K483" s="3"/>
       <c r="L483" s="3"/>
@@ -9920,7 +9958,7 @@
       <c r="F484" s="4"/>
       <c r="G484" s="4"/>
       <c r="H484" s="4"/>
-      <c r="I484" s="14"/>
+      <c r="I484" s="13"/>
       <c r="J484" s="4"/>
       <c r="K484" s="4"/>
       <c r="L484" s="4"/>
@@ -9935,7 +9973,7 @@
       <c r="F485" s="3"/>
       <c r="G485" s="3"/>
       <c r="H485" s="3"/>
-      <c r="I485" s="15"/>
+      <c r="I485" s="14"/>
       <c r="J485" s="3"/>
       <c r="K485" s="3"/>
       <c r="L485" s="3"/>
@@ -9950,7 +9988,7 @@
       <c r="F486" s="4"/>
       <c r="G486" s="4"/>
       <c r="H486" s="4"/>
-      <c r="I486" s="14"/>
+      <c r="I486" s="13"/>
       <c r="J486" s="4"/>
       <c r="K486" s="4"/>
       <c r="L486" s="4"/>
@@ -9965,7 +10003,7 @@
       <c r="F487" s="3"/>
       <c r="G487" s="3"/>
       <c r="H487" s="3"/>
-      <c r="I487" s="15"/>
+      <c r="I487" s="14"/>
       <c r="J487" s="3"/>
       <c r="K487" s="3"/>
       <c r="L487" s="3"/>
@@ -9980,7 +10018,7 @@
       <c r="F488" s="4"/>
       <c r="G488" s="4"/>
       <c r="H488" s="4"/>
-      <c r="I488" s="14"/>
+      <c r="I488" s="13"/>
       <c r="J488" s="4"/>
       <c r="K488" s="4"/>
       <c r="L488" s="4"/>
@@ -9995,7 +10033,7 @@
       <c r="F489" s="3"/>
       <c r="G489" s="3"/>
       <c r="H489" s="3"/>
-      <c r="I489" s="15"/>
+      <c r="I489" s="14"/>
       <c r="J489" s="3"/>
       <c r="K489" s="3"/>
       <c r="L489" s="3"/>
@@ -10010,7 +10048,7 @@
       <c r="F490" s="4"/>
       <c r="G490" s="4"/>
       <c r="H490" s="4"/>
-      <c r="I490" s="14"/>
+      <c r="I490" s="13"/>
       <c r="J490" s="4"/>
       <c r="K490" s="4"/>
       <c r="L490" s="4"/>
@@ -10025,7 +10063,7 @@
       <c r="F491" s="3"/>
       <c r="G491" s="3"/>
       <c r="H491" s="3"/>
-      <c r="I491" s="15"/>
+      <c r="I491" s="14"/>
       <c r="J491" s="3"/>
       <c r="K491" s="3"/>
       <c r="L491" s="3"/>
@@ -10040,7 +10078,7 @@
       <c r="F492" s="4"/>
       <c r="G492" s="4"/>
       <c r="H492" s="4"/>
-      <c r="I492" s="14"/>
+      <c r="I492" s="13"/>
       <c r="J492" s="4"/>
       <c r="K492" s="4"/>
       <c r="L492" s="4"/>
@@ -10055,7 +10093,7 @@
       <c r="F493" s="3"/>
       <c r="G493" s="3"/>
       <c r="H493" s="3"/>
-      <c r="I493" s="15"/>
+      <c r="I493" s="14"/>
       <c r="J493" s="3"/>
       <c r="K493" s="3"/>
       <c r="L493" s="3"/>
@@ -10070,7 +10108,7 @@
       <c r="F494" s="4"/>
       <c r="G494" s="4"/>
       <c r="H494" s="4"/>
-      <c r="I494" s="14"/>
+      <c r="I494" s="13"/>
       <c r="J494" s="4"/>
       <c r="K494" s="4"/>
       <c r="L494" s="4"/>
@@ -10085,7 +10123,7 @@
       <c r="F495" s="3"/>
       <c r="G495" s="3"/>
       <c r="H495" s="3"/>
-      <c r="I495" s="15"/>
+      <c r="I495" s="14"/>
       <c r="J495" s="3"/>
       <c r="K495" s="3"/>
       <c r="L495" s="3"/>
@@ -10100,7 +10138,7 @@
       <c r="F496" s="4"/>
       <c r="G496" s="4"/>
       <c r="H496" s="4"/>
-      <c r="I496" s="14"/>
+      <c r="I496" s="13"/>
       <c r="J496" s="4"/>
       <c r="K496" s="4"/>
       <c r="L496" s="4"/>
@@ -10118,7 +10156,7 @@
   </sheetPr>
   <dimension ref="A1:F500"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10131,183 +10169,183 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>36</v>
+      <c r="B1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="2" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="2" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="2" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="2" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="2" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
@@ -14250,19 +14288,19 @@
   </sheetPr>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="38.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="38.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="47.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="29.290714285714284" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="5" width="79.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="9" width="79.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="10" width="79.43357142857143" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="5" width="79.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -14331,40 +14369,100 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="4"/>
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4"/>
@@ -14387,7 +14485,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="8"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
@@ -14411,7 +14509,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="8"/>
+      <c r="I9" s="9"/>
       <c r="J9" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
@@ -14442,10 +14540,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="9.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="37.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="39.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="19.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">

--- a/Copy of SneakerPark Templates.xlsx
+++ b/Copy of SneakerPark Templates.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="257">
   <si>
     <t>Business Term</t>
   </si>
@@ -89,79 +89,58 @@
     <t>Y</t>
   </si>
   <si>
-    <t>BuildingID</t>
-  </si>
-  <si>
-    <t>Apartments</t>
+    <t>Emal</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>False Data</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Some records have fake emails registered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">natalie.vitiello@fakeemail.com </t>
+  </si>
+  <si>
+    <t>Users should not register with fake emails</t>
+  </si>
+  <si>
+    <t>All email domain should be checked for validity</t>
+  </si>
+  <si>
+    <t>Number of fake emails ( emails with invalid domains )</t>
+  </si>
+  <si>
+    <t>Totalamount</t>
+  </si>
+  <si>
+    <t>Orders</t>
+  </si>
+  <si>
+    <t>Bad Data</t>
+  </si>
+  <si>
+    <t>Validity</t>
+  </si>
+  <si>
+    <t>Some records have total amount set to zero</t>
+  </si>
+  <si>
+    <t>Total amount of an order should not be zero</t>
+  </si>
+  <si>
+    <t>Number of emails with invalid domains</t>
+  </si>
+  <si>
+    <t>shippingaddress</t>
   </si>
   <si>
     <t>Missing Data</t>
-  </si>
-  <si>
-    <t>Accuracy</t>
-  </si>
-  <si>
-    <t>Some records have NULL values for the BuildingID</t>
-  </si>
-  <si>
-    <t>ApartmentID = 233</t>
-  </si>
-  <si>
-    <t>This field needs to be set to NOT NULL to avoid missing data. &amp;#xA;</t>
-  </si>
-  <si>
-    <t>All apartments must be associated with a building.</t>
-  </si>
-  <si>
-    <t>Number of orphan apartment records (i.e. apartments that are not linked to a building)</t>
-  </si>
-  <si>
-    <t>Emal</t>
-  </si>
-  <si>
-    <t>Users</t>
-  </si>
-  <si>
-    <t>False Data</t>
-  </si>
-  <si>
-    <t>Some records have fake emails registered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">natalie.vitiello@fakeemail.com </t>
-  </si>
-  <si>
-    <t>Users should not register with fake emails</t>
-  </si>
-  <si>
-    <t>All email domain should be checked for validity</t>
-  </si>
-  <si>
-    <t>Number of fake emails ( emails with invalid domains )</t>
-  </si>
-  <si>
-    <t>Totalamount</t>
-  </si>
-  <si>
-    <t>Orders</t>
-  </si>
-  <si>
-    <t>Bad Data</t>
-  </si>
-  <si>
-    <t>Validity</t>
-  </si>
-  <si>
-    <t>Some records have total amount set to zero</t>
-  </si>
-  <si>
-    <t>Total amount of an order should not be zero</t>
-  </si>
-  <si>
-    <t>Number of emails with invalid domains</t>
-  </si>
-  <si>
-    <t>shippingaddress</t>
   </si>
   <si>
     <t>Completeness</t>
@@ -1276,60 +1255,60 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="23.25">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>22</v>
@@ -1338,7 +1317,7 @@
         <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="I2" s="8">
         <v>822950</v>
@@ -1347,26 +1326,26 @@
         <v>22</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>22</v>
@@ -1375,339 +1354,339 @@
         <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I3" s="8">
         <v>3586</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>99</v>
-      </c>
       <c r="J4" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="I9" s="8">
         <v>12802</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>22</v>
@@ -1716,7 +1695,7 @@
         <v>22</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="I12" s="8">
         <v>2333</v>
@@ -1725,400 +1704,400 @@
         <v>22</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
       <c r="A14" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="I14" s="8">
         <v>99900</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
       <c r="A15" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
       <c r="A16" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
       <c r="A17" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
       <c r="A18" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="I18" s="8">
         <v>14</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
       <c r="A19" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
       <c r="A20" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.25">
       <c r="A21" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25">
       <c r="A22" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.25">
       <c r="A23" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>22</v>
@@ -2127,7 +2106,7 @@
         <v>22</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I23" s="8">
         <v>922399</v>
@@ -2136,26 +2115,26 @@
         <v>22</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="20.25">
       <c r="A24" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>22</v>
@@ -2164,39 +2143,39 @@
         <v>22</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="I24" s="8">
         <v>25516</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="20.25">
       <c r="A25" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>22</v>
@@ -2205,418 +2184,418 @@
         <v>22</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="I25" s="8">
         <v>509</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="20.25">
       <c r="A26" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="20.25">
       <c r="A27" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="20.25">
       <c r="A28" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="20.25">
       <c r="A29" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="20.25">
       <c r="A30" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="I30" s="8">
         <v>12</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="20.25">
       <c r="A31" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="20.25">
       <c r="A32" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="I32" s="8">
         <v>52</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="20.25">
       <c r="A33" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="20.25">
       <c r="A34" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="20.25">
       <c r="A35" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="20.25">
       <c r="A36" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I36" s="8">
         <v>29626</v>
@@ -2628,105 +2607,105 @@
         <v>22</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="20.25">
       <c r="A37" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="I37" s="8">
         <v>998839</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="20.25">
       <c r="A38" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="I38" s="8">
         <v>45</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="20.25">
       <c r="A39" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>22</v>
@@ -2735,7 +2714,7 @@
         <v>22</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I39" s="8">
         <v>29692</v>
@@ -2744,26 +2723,26 @@
         <v>22</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="20.25">
       <c r="A40" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>22</v>
@@ -2772,13 +2751,13 @@
         <v>22</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="I40" s="8">
         <v>7708</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>22</v>
@@ -2788,19 +2767,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="20.25">
       <c r="A41" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>22</v>
@@ -2809,298 +2788,298 @@
         <v>22</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="I41" s="8">
         <v>79220</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="20.25">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I42" s="8">
         <v>15.8</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="20.25">
       <c r="A43" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="I43" s="8">
         <v>9</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="20.25">
       <c r="A44" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="I44" s="8">
         <v>0</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="20.25">
       <c r="A45" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="20.25">
       <c r="A46" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="20.25">
       <c r="A47" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="20.25">
       <c r="A48" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="20.25">
       <c r="A49" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>22</v>
@@ -3109,7 +3088,7 @@
         <v>22</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="I49" s="8">
         <v>797095</v>
@@ -3118,26 +3097,26 @@
         <v>22</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="20.25">
       <c r="A50" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>22</v>
@@ -3146,150 +3125,150 @@
         <v>22</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I50" s="8">
         <v>427</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="20.25">
       <c r="A51" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="20.25">
       <c r="A52" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="20.25">
       <c r="A53" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="20.25">
       <c r="A54" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>22</v>
@@ -3298,7 +3277,7 @@
         <v>22</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="I54" s="8">
         <v>9467</v>
@@ -3307,100 +3286,100 @@
         <v>22</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="20.25">
       <c r="A55" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I55" s="8">
         <v>99658816711200</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="20.25">
       <c r="A56" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="20.25">
       <c r="A57" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>22</v>
@@ -3409,39 +3388,39 @@
         <v>22</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I57" s="8">
         <v>96342</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="20.25">
       <c r="A58" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>22</v>
@@ -3450,7 +3429,7 @@
         <v>22</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="I58" s="8">
         <v>80527</v>
@@ -3459,192 +3438,192 @@
         <v>22</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="20.25">
       <c r="A59" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="20.25">
       <c r="A60" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="20.25">
       <c r="A61" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="20.25">
       <c r="A62" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="20.25">
       <c r="A63" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I63" s="8">
         <v>13835</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -10173,179 +10152,179 @@
         <v>10</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
@@ -14286,7 +14265,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -14336,7 +14315,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -14382,22 +14361,22 @@
         <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="2" t="s">
         <v>36</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>37</v>
       </c>
       <c r="I3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
@@ -14405,124 +14384,92 @@
         <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="3"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="4"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Copy of SneakerPark Templates.xlsx
+++ b/Copy of SneakerPark Templates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Data Dictionary"/>
@@ -1234,7 +1234,7 @@
   </sheetPr>
   <dimension ref="A1:M496"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14267,7 +14267,7 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Copy of SneakerPark Templates.xlsx
+++ b/Copy of SneakerPark Templates.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="263">
   <si>
     <t>Business Term</t>
   </si>
@@ -266,6 +266,9 @@
     <t>Customer Service System</t>
   </si>
   <si>
+    <t>cs.customerservicerequests</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -278,6 +281,9 @@
     <t>N</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>userid</t>
   </si>
   <si>
@@ -371,6 +377,9 @@
     <t>Inventory Management System</t>
   </si>
   <si>
+    <t>im.items</t>
+  </si>
+  <si>
     <t>itemid</t>
   </si>
   <si>
@@ -488,6 +497,9 @@
     <t>Listing System</t>
   </si>
   <si>
+    <t>li.listings</t>
+  </si>
+  <si>
     <t>listingid</t>
   </si>
   <si>
@@ -503,9 +515,6 @@
     <t>The unique identifier for the product associated to the listing</t>
   </si>
   <si>
-    <t>im.items</t>
-  </si>
-  <si>
     <t>shoetype</t>
   </si>
   <si>
@@ -593,15 +602,18 @@
     <t>Order Processing System</t>
   </si>
   <si>
+    <t>op.orderitems</t>
+  </si>
+  <si>
     <t>The unique ID for each order</t>
   </si>
   <si>
+    <t>op.orderitems.orderid</t>
+  </si>
+  <si>
     <t>The unique ID for the listing that associates to this order</t>
   </si>
   <si>
-    <t>li.listings</t>
-  </si>
-  <si>
     <t>li.listings.listingid</t>
   </si>
   <si>
@@ -695,6 +707,9 @@
     <t>Shipped&amp;#xA;</t>
   </si>
   <si>
+    <t>op.ordershipments</t>
+  </si>
+  <si>
     <t>shipmentid</t>
   </si>
   <si>
@@ -753,6 +768,9 @@
   </si>
   <si>
     <t>Associated user to the credit card</t>
+  </si>
+  <si>
+    <t>usr.users</t>
   </si>
   <si>
     <t>A unique identifier for each user</t>
@@ -1240,7 +1258,7 @@
   <cols>
     <col min="1" max="1" style="5" width="17.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="5" width="29.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="24.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="26.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="5" width="23.433571428571426" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="5" width="27.719285714285714" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="5" width="12.147857142857141" customWidth="1" bestFit="1"/>
@@ -1302,13 +1320,13 @@
         <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>22</v>
@@ -1317,7 +1335,7 @@
         <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I2" s="8">
         <v>822950</v>
@@ -1326,10 +1344,14 @@
         <v>22</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="2" t="s">
@@ -1339,13 +1361,13 @@
         <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>22</v>
@@ -1354,22 +1376,22 @@
         <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I3" s="8">
         <v>3586</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
@@ -1380,34 +1402,38 @@
         <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="2" t="s">
@@ -1417,34 +1443,38 @@
         <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="2" t="s">
@@ -1454,34 +1484,38 @@
         <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="2" t="s">
@@ -1491,34 +1525,38 @@
         <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="2" t="s">
@@ -1528,34 +1566,38 @@
         <v>81</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="2" t="s">
@@ -1565,37 +1607,37 @@
         <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I9" s="8">
         <v>12802</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
@@ -1606,34 +1648,38 @@
         <v>81</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="2" t="s">
@@ -1643,50 +1689,54 @@
         <v>81</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>22</v>
@@ -1695,7 +1745,7 @@
         <v>22</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I12" s="8">
         <v>2333</v>
@@ -1704,400 +1754,440 @@
         <v>22</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
       <c r="A14" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I14" s="8">
         <v>99900</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
       <c r="A15" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
       <c r="A16" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
       <c r="A17" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
       <c r="A18" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I18" s="8">
         <v>14</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
       <c r="A19" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
       <c r="A20" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.25">
       <c r="A21" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="F21" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25">
       <c r="A22" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.25">
       <c r="A23" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>22</v>
@@ -2106,7 +2196,7 @@
         <v>22</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="I23" s="8">
         <v>922399</v>
@@ -2115,26 +2205,30 @@
         <v>22</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="20.25">
       <c r="A24" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>22</v>
@@ -2143,39 +2237,39 @@
         <v>22</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I24" s="8">
         <v>25516</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M24" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="20.25">
       <c r="A25" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>22</v>
@@ -2184,418 +2278,458 @@
         <v>22</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="I25" s="8">
         <v>509</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="20.25">
       <c r="A26" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="20.25">
       <c r="A27" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="20.25">
       <c r="A28" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="20.25">
       <c r="A29" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="20.25">
       <c r="A30" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I30" s="8">
         <v>12</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="20.25">
       <c r="A31" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="20.25">
       <c r="A32" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I32" s="8">
         <v>52</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="20.25">
       <c r="A33" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="20.25">
       <c r="A34" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="20.25">
       <c r="A35" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="F35" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="20.25">
       <c r="A36" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>62</v>
+        <v>194</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="I36" s="8">
         <v>29626</v>
@@ -2607,10 +2741,10 @@
         <v>22</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>108</v>
+        <v>196</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="20.25">
@@ -2618,40 +2752,40 @@
         <v>63</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>62</v>
+        <v>194</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="I37" s="8">
         <v>998839</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="20.25">
@@ -2659,53 +2793,57 @@
         <v>63</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>62</v>
+        <v>194</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="I38" s="8">
         <v>45</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="20.25">
       <c r="A39" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>22</v>
@@ -2714,7 +2852,7 @@
         <v>22</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="I39" s="8">
         <v>29692</v>
@@ -2723,26 +2861,30 @@
         <v>22</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="20.25">
       <c r="A40" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>22</v>
@@ -2751,35 +2893,39 @@
         <v>22</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I40" s="8">
         <v>7708</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
+      <c r="L40" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="20.25">
       <c r="A41" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>22</v>
@@ -2788,22 +2934,22 @@
         <v>22</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I41" s="8">
         <v>79220</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="20.25">
@@ -2811,275 +2957,303 @@
         <v>63</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I42" s="8">
         <v>15.8</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="20.25">
       <c r="A43" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="I43" s="8">
         <v>9</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="20.25">
       <c r="A44" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="I44" s="8">
         <v>0</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="20.25">
       <c r="A45" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="20.25">
       <c r="A46" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="20.25">
       <c r="A47" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="20.25">
       <c r="A48" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="20.25">
       <c r="A49" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>22</v>
@@ -3088,7 +3262,7 @@
         <v>22</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="I49" s="8">
         <v>797095</v>
@@ -3097,26 +3271,30 @@
         <v>22</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="20.25">
       <c r="A50" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>22</v>
@@ -3125,22 +3303,22 @@
         <v>22</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="I50" s="8">
         <v>427</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="20.25">
@@ -3148,127 +3326,139 @@
         <v>63</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="20.25">
       <c r="A52" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="20.25">
       <c r="A53" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="20.25">
       <c r="A54" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>66</v>
+        <v>206</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>22</v>
@@ -3277,7 +3467,7 @@
         <v>22</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="I54" s="8">
         <v>9467</v>
@@ -3286,100 +3476,112 @@
         <v>22</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="20.25">
       <c r="A55" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>66</v>
+        <v>206</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="I55" s="8">
         <v>99658816711200</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="20.25">
       <c r="A56" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>66</v>
+        <v>206</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="20.25">
       <c r="A57" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>66</v>
+        <v>206</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>22</v>
@@ -3388,22 +3590,22 @@
         <v>22</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="I57" s="8">
         <v>96342</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L57" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M57" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="20.25">
@@ -3411,16 +3613,16 @@
         <v>67</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>68</v>
+        <v>250</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>22</v>
@@ -3429,7 +3631,7 @@
         <v>22</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="I58" s="8">
         <v>80527</v>
@@ -3438,195 +3640,219 @@
         <v>22</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="20.25">
       <c r="A59" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>68</v>
+        <v>250</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="20.25">
       <c r="A60" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>68</v>
+        <v>250</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="20.25">
       <c r="A61" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>68</v>
+        <v>250</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="20.25">
       <c r="A62" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>68</v>
+        <v>250</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="20.25">
       <c r="A63" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>68</v>
+        <v>250</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="I63" s="8">
         <v>13835</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="20.25">
       <c r="A64" s="4"/>

--- a/Copy of SneakerPark Templates.xlsx
+++ b/Copy of SneakerPark Templates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Data Dictionary"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="258">
   <si>
     <t>Business Term</t>
   </si>
@@ -89,10 +89,10 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Emal</t>
-  </si>
-  <si>
-    <t>Users</t>
+    <t>email</t>
+  </si>
+  <si>
+    <t>usr.users</t>
   </si>
   <si>
     <t>False Data</t>
@@ -104,7 +104,7 @@
     <t>Some records have fake emails registered</t>
   </si>
   <si>
-    <t xml:space="preserve">natalie.vitiello@fakeemail.com </t>
+    <t xml:space="preserve">email = natalie.vitiello@fakeemail.com </t>
   </si>
   <si>
     <t>Users should not register with fake emails</t>
@@ -116,10 +116,10 @@
     <t>Number of fake emails ( emails with invalid domains )</t>
   </si>
   <si>
-    <t>Totalamount</t>
-  </si>
-  <si>
-    <t>Orders</t>
+    <t>totalamount</t>
+  </si>
+  <si>
+    <t>op.orders</t>
   </si>
   <si>
     <t>Bad Data</t>
@@ -131,6 +131,9 @@
     <t>Some records have total amount set to zero</t>
   </si>
   <si>
+    <t>totalamount = 0</t>
+  </si>
+  <si>
     <t>Total amount of an order should not be zero</t>
   </si>
   <si>
@@ -197,7 +200,7 @@
     <t>items</t>
   </si>
   <si>
-    <t>Items</t>
+    <t>Inventory</t>
   </si>
   <si>
     <t>listings</t>
@@ -323,9 +326,6 @@
     <t>Return</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>Email address of the customer contacted</t>
   </si>
   <si>
@@ -347,9 +347,6 @@
     <t>Order ID related to the customer service request</t>
   </si>
   <si>
-    <t>op.orders</t>
-  </si>
-  <si>
     <t>op.orders.orderid</t>
   </si>
   <si>
@@ -371,9 +368,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Item</t>
-  </si>
-  <si>
     <t>Inventory Management System</t>
   </si>
   <si>
@@ -491,9 +485,6 @@
     <t>2020-09-29</t>
   </si>
   <si>
-    <t>Listing</t>
-  </si>
-  <si>
     <t>Listing System</t>
   </si>
   <si>
@@ -662,9 +653,6 @@
     <t>Rate of the tax in percent</t>
   </si>
   <si>
-    <t>totalamount</t>
-  </si>
-  <si>
     <t xml:space="preserve">numeric(8,2)  </t>
   </si>
   <si>
@@ -768,9 +756,6 @@
   </si>
   <si>
     <t>Associated user to the credit card</t>
-  </si>
-  <si>
-    <t>usr.users</t>
   </si>
   <si>
     <t>A unique identifier for each user</t>
@@ -924,9 +909,6 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -937,6 +919,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
@@ -1252,11 +1237,11 @@
   </sheetPr>
   <dimension ref="A1:M496"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="23.719285714285714" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="5" width="29.14785714285714" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="5" width="26.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="5" width="23.433571428571426" customWidth="1" bestFit="1"/>
@@ -1273,43 +1258,43 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="23.25">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>76</v>
+      <c r="I1" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
@@ -1317,16 +1302,16 @@
         <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>22</v>
@@ -1335,22 +1320,22 @@
         <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="8">
+        <v>86</v>
+      </c>
+      <c r="I2" s="12">
         <v>822950</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
@@ -1358,16 +1343,16 @@
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>22</v>
@@ -1376,22 +1361,22 @@
         <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I3" s="8">
+        <v>90</v>
+      </c>
+      <c r="I3" s="12">
         <v>3586</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
@@ -1399,40 +1384,40 @@
         <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I4" s="8" t="s">
         <v>94</v>
       </c>
+      <c r="I4" s="12" t="s">
+        <v>95</v>
+      </c>
       <c r="J4" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
@@ -1440,40 +1425,40 @@
         <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I5" s="8" t="s">
         <v>97</v>
       </c>
+      <c r="I5" s="12" t="s">
+        <v>98</v>
+      </c>
       <c r="J5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
@@ -1481,40 +1466,40 @@
         <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I6" s="8" t="s">
         <v>100</v>
       </c>
+      <c r="I6" s="12" t="s">
+        <v>101</v>
+      </c>
       <c r="J6" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
@@ -1522,40 +1507,40 @@
         <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="12" t="s">
         <v>103</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
@@ -1563,40 +1548,40 @@
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="12" t="s">
         <v>106</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
@@ -1604,40 +1589,40 @@
         <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="12">
         <v>12802</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
@@ -1645,40 +1630,40 @@
         <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>113</v>
-      </c>
       <c r="J10" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
@@ -1686,57 +1671,57 @@
         <v>53</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>116</v>
-      </c>
       <c r="J11" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>22</v>
@@ -1745,449 +1730,449 @@
         <v>22</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="I12" s="8">
+        <v>119</v>
+      </c>
+      <c r="I12" s="12">
         <v>2333</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
       <c r="A14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I14" s="8">
+        <v>125</v>
+      </c>
+      <c r="I14" s="12">
         <v>99900</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
       <c r="A15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>129</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
       <c r="A16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>132</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
       <c r="A17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>136</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
       <c r="A18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I18" s="8">
+        <v>139</v>
+      </c>
+      <c r="I18" s="12">
         <v>14</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
       <c r="A19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>143</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
       <c r="A20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>147</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.25">
       <c r="A21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="D21" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I21" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>152</v>
-      </c>
       <c r="J21" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25">
       <c r="A22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="D22" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="I22" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>156</v>
-      </c>
       <c r="J22" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.25">
       <c r="A23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>22</v>
@@ -2196,39 +2181,39 @@
         <v>22</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="I23" s="8">
+        <v>158</v>
+      </c>
+      <c r="I23" s="12">
         <v>922399</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="20.25">
       <c r="A24" s="2" t="s">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>22</v>
@@ -2237,39 +2222,39 @@
         <v>22</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="I24" s="8">
+        <v>159</v>
+      </c>
+      <c r="I24" s="12">
         <v>25516</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="20.25">
       <c r="A25" s="2" t="s">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>22</v>
@@ -2278,432 +2263,432 @@
         <v>22</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="I25" s="8">
+        <v>161</v>
+      </c>
+      <c r="I25" s="12">
         <v>509</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="20.25">
       <c r="A26" s="2" t="s">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>164</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="20.25">
       <c r="A27" s="2" t="s">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>167</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="20.25">
       <c r="A28" s="2" t="s">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I28" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>138</v>
-      </c>
       <c r="J28" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="20.25">
       <c r="A29" s="2" t="s">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I29" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>175</v>
-      </c>
       <c r="J29" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="20.25">
       <c r="A30" s="2" t="s">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="I30" s="8">
+        <v>174</v>
+      </c>
+      <c r="I30" s="12">
         <v>12</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="20.25">
       <c r="A31" s="2" t="s">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>176</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="20.25">
       <c r="A32" s="2" t="s">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="I32" s="8">
+        <v>179</v>
+      </c>
+      <c r="I32" s="12">
         <v>52</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="20.25">
       <c r="A33" s="2" t="s">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>183</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="20.25">
       <c r="A34" s="2" t="s">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>186</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="20.25">
       <c r="A35" s="2" t="s">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>192</v>
+        <v>188</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>189</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="20.25">
@@ -2711,27 +2696,27 @@
         <v>63</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="I36" s="8">
+        <v>192</v>
+      </c>
+      <c r="I36" s="12">
         <v>29626</v>
       </c>
       <c r="J36" s="2" t="s">
@@ -2741,10 +2726,10 @@
         <v>22</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="20.25">
@@ -2752,40 +2737,40 @@
         <v>63</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="I37" s="8">
+        <v>194</v>
+      </c>
+      <c r="I37" s="12">
         <v>998839</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="20.25">
@@ -2793,57 +2778,57 @@
         <v>63</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I38" s="8">
+        <v>198</v>
+      </c>
+      <c r="I38" s="12">
         <v>45</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="20.25">
       <c r="A39" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>22</v>
@@ -2852,39 +2837,39 @@
         <v>22</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="I39" s="8">
+        <v>199</v>
+      </c>
+      <c r="I39" s="12">
         <v>29692</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="20.25">
       <c r="A40" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>22</v>
@@ -2893,39 +2878,39 @@
         <v>22</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="I40" s="8">
+        <v>201</v>
+      </c>
+      <c r="I40" s="12">
         <v>7708</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="20.25">
       <c r="A41" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>22</v>
@@ -2934,326 +2919,326 @@
         <v>22</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="I41" s="8">
+        <v>201</v>
+      </c>
+      <c r="I41" s="12">
         <v>79220</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="20.25">
       <c r="A42" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="I42" s="8">
+        <v>207</v>
+      </c>
+      <c r="I42" s="12">
         <v>15.8</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="20.25">
       <c r="A43" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I43" s="8">
+        <v>210</v>
+      </c>
+      <c r="I43" s="12">
         <v>9</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="20.25">
       <c r="A44" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>214</v>
+        <v>32</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="I44" s="8">
+        <v>212</v>
+      </c>
+      <c r="I44" s="12">
         <v>0</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="20.25">
       <c r="A45" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>214</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="20.25">
       <c r="A46" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>217</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="20.25">
       <c r="A47" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>225</v>
+        <v>220</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="20.25">
       <c r="A48" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>228</v>
+        <v>223</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>224</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="20.25">
       <c r="A49" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>22</v>
@@ -3262,39 +3247,39 @@
         <v>22</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="I49" s="8">
+        <v>227</v>
+      </c>
+      <c r="I49" s="12">
         <v>797095</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="20.25">
       <c r="A50" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>22</v>
@@ -3303,145 +3288,145 @@
         <v>22</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="I50" s="8">
+        <v>228</v>
+      </c>
+      <c r="I50" s="12">
         <v>427</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M50" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="20.25">
       <c r="A51" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>233</v>
-      </c>
       <c r="E51" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="I51" s="8" t="s">
-        <v>235</v>
+        <v>230</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>231</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="20.25">
       <c r="A52" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>239</v>
+        <v>234</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>235</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="20.25">
       <c r="A53" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>242</v>
+        <v>237</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>238</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="20.25">
@@ -3449,16 +3434,16 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>22</v>
@@ -3467,22 +3452,22 @@
         <v>22</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="I54" s="8">
+        <v>240</v>
+      </c>
+      <c r="I54" s="12">
         <v>9467</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="20.25">
@@ -3490,40 +3475,40 @@
         <v>67</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="I55" s="8">
+        <v>242</v>
+      </c>
+      <c r="I55" s="12">
         <v>99658816711200</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="20.25">
@@ -3531,40 +3516,40 @@
         <v>67</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="E56" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="I56" s="8" t="s">
-        <v>248</v>
+        <v>242</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>244</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="20.25">
@@ -3572,16 +3557,16 @@
         <v>67</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>22</v>
@@ -3590,39 +3575,39 @@
         <v>22</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="I57" s="8">
+        <v>245</v>
+      </c>
+      <c r="I57" s="12">
         <v>96342</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="20.25">
       <c r="A58" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>22</v>
@@ -3631,227 +3616,227 @@
         <v>22</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I58" s="8">
+        <v>246</v>
+      </c>
+      <c r="I58" s="12">
         <v>80527</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="20.25">
       <c r="A59" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="I59" s="8" t="s">
-        <v>253</v>
+        <v>247</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>248</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="20.25">
       <c r="A60" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="I60" s="8" t="s">
-        <v>255</v>
+        <v>249</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>250</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="20.25">
       <c r="A61" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="I61" s="8" t="s">
-        <v>257</v>
+        <v>251</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>252</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="20.25">
       <c r="A62" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="I62" s="8" t="s">
-        <v>260</v>
+        <v>254</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>255</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="20.25">
       <c r="A63" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="I63" s="8">
+        <v>257</v>
+      </c>
+      <c r="I63" s="12">
         <v>13835</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="20.25">
@@ -10374,183 +10359,183 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>51</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
@@ -14493,7 +14478,7 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14503,9 +14488,9 @@
     <col min="4" max="4" style="5" width="13.147857142857141" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="5" width="14.005" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="5" width="47.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="29.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="35.14785714285715" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="5" width="79.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="10" width="79.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="9" width="79.43357142857143" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="5" width="79.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -14592,17 +14577,17 @@
       <c r="F3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="8">
-        <v>0</v>
+      <c r="G3" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
@@ -14610,31 +14595,31 @@
         <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
@@ -14658,7 +14643,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="9"/>
+      <c r="I6" s="8"/>
       <c r="J6" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
@@ -14682,7 +14667,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="9"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">

--- a/Copy of SneakerPark Templates.xlsx
+++ b/Copy of SneakerPark Templates.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="264">
   <si>
     <t>Business Term</t>
   </si>
@@ -164,6 +164,33 @@
     <t>Number of records with empty shipping address</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>op.ordershipments</t>
+  </si>
+  <si>
+    <t>op.orderitems</t>
+  </si>
+  <si>
+    <t>Consistency</t>
+  </si>
+  <si>
+    <t>Data for order shipment is stored as a date, while the  order date column in in the table 'op.orders' stores data as a timestamp without time zone. This can be problematic in the future, if one wants to catch up and see how an order shipment failed and in which time the error has happened.</t>
+  </si>
+  <si>
+    <t>date = 2020-11-09</t>
+  </si>
+  <si>
+    <t>Make two columns use the same data format</t>
+  </si>
+  <si>
+    <t>Date for order and order shipment should be the same</t>
+  </si>
+  <si>
+    <t>Number of columns with a different data format</t>
+  </si>
+  <si>
     <t>Data Domain</t>
   </si>
   <si>
@@ -281,9 +308,6 @@
     <t>Identifies the unique request made for customer service</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -593,9 +617,6 @@
     <t>Order Processing System</t>
   </si>
   <si>
-    <t>op.orderitems</t>
-  </si>
-  <si>
     <t>The unique ID for each order</t>
   </si>
   <si>
@@ -693,9 +714,6 @@
   </si>
   <si>
     <t>Shipped&amp;#xA;</t>
-  </si>
-  <si>
-    <t>op.ordershipments</t>
   </si>
   <si>
     <t>shipmentid</t>
@@ -1258,60 +1276,60 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="23.25">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>22</v>
@@ -1320,7 +1338,7 @@
         <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="I2" s="12">
         <v>822950</v>
@@ -1329,30 +1347,30 @@
         <v>22</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>22</v>
@@ -1361,259 +1379,259 @@
         <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="I3" s="12">
         <v>3586</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I9" s="12">
         <v>12802</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>22</v>
@@ -1622,106 +1640,106 @@
         <v>33</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>22</v>
@@ -1730,7 +1748,7 @@
         <v>22</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="I12" s="12">
         <v>2333</v>
@@ -1739,440 +1757,440 @@
         <v>22</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
       <c r="A14" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="I14" s="12">
         <v>99900</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
       <c r="A15" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
       <c r="A16" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
       <c r="A17" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="20.25">
       <c r="A18" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="I18" s="12">
         <v>14</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="20.25">
       <c r="A19" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
       <c r="A20" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.25">
       <c r="A21" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25">
       <c r="A22" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.25">
       <c r="A23" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>22</v>
@@ -2181,7 +2199,7 @@
         <v>22</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="I23" s="12">
         <v>922399</v>
@@ -2190,30 +2208,30 @@
         <v>22</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="20.25">
       <c r="A24" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>22</v>
@@ -2222,39 +2240,39 @@
         <v>22</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="I24" s="12">
         <v>25516</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="20.25">
       <c r="A25" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>22</v>
@@ -2263,458 +2281,458 @@
         <v>22</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="I25" s="12">
         <v>509</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="20.25">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="20.25">
       <c r="A27" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="20.25">
       <c r="A28" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="20.25">
       <c r="A29" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="20.25">
       <c r="A30" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="I30" s="12">
         <v>12</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="20.25">
       <c r="A31" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="20.25">
       <c r="A32" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="I32" s="12">
         <v>52</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="20.25">
       <c r="A33" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="20.25">
       <c r="A34" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="20.25">
       <c r="A35" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="20.25">
       <c r="A36" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>191</v>
+        <v>50</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="I36" s="12">
         <v>29626</v>
@@ -2729,106 +2747,106 @@
         <v>33</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="20.25">
       <c r="A37" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>191</v>
+        <v>50</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="I37" s="12">
         <v>998839</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="20.25">
       <c r="A38" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>191</v>
+        <v>50</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="I38" s="12">
         <v>45</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="20.25">
       <c r="A39" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>22</v>
@@ -2837,7 +2855,7 @@
         <v>22</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="I39" s="12">
         <v>29692</v>
@@ -2846,30 +2864,30 @@
         <v>22</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="20.25">
       <c r="A40" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>22</v>
@@ -2878,39 +2896,39 @@
         <v>22</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="I40" s="12">
         <v>7708</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="20.25">
       <c r="A41" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>22</v>
@@ -2919,112 +2937,112 @@
         <v>22</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="I41" s="12">
         <v>79220</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="20.25">
       <c r="A42" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="I42" s="12">
         <v>15.8</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="20.25">
       <c r="A43" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="I43" s="12">
         <v>9</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="20.25">
       <c r="A44" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>33</v>
@@ -3033,39 +3051,39 @@
         <v>32</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="I44" s="12">
         <v>0</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="20.25">
       <c r="A45" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>33</v>
@@ -3074,171 +3092,171 @@
         <v>40</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="20.25">
       <c r="A46" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="20.25">
       <c r="A47" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="20.25">
       <c r="A48" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="20.25">
       <c r="A49" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>225</v>
+        <v>49</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>22</v>
@@ -3247,7 +3265,7 @@
         <v>22</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="I49" s="12">
         <v>797095</v>
@@ -3256,30 +3274,30 @@
         <v>22</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="20.25">
       <c r="A50" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>225</v>
+        <v>49</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>22</v>
@@ -3288,13 +3306,13 @@
         <v>22</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="I50" s="12">
         <v>427</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>22</v>
@@ -3303,147 +3321,147 @@
         <v>33</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="20.25">
       <c r="A51" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>225</v>
+        <v>49</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="20.25">
       <c r="A52" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>225</v>
+        <v>49</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="20.25">
       <c r="A53" s="2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>225</v>
+        <v>49</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="20.25">
       <c r="A54" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>22</v>
@@ -3452,7 +3470,7 @@
         <v>22</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="I54" s="12">
         <v>9467</v>
@@ -3461,112 +3479,112 @@
         <v>22</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="20.25">
       <c r="A55" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="I55" s="12">
         <v>99658816711200</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="20.25">
       <c r="A56" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="20.25">
       <c r="A57" s="2" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>22</v>
@@ -3575,39 +3593,39 @@
         <v>22</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="I57" s="12">
         <v>96342</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="20.25">
       <c r="A58" s="2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>22</v>
@@ -3616,7 +3634,7 @@
         <v>22</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="I58" s="12">
         <v>80527</v>
@@ -3625,103 +3643,103 @@
         <v>22</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="20.25">
       <c r="A59" s="2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="20.25">
       <c r="A60" s="2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="20.25">
       <c r="A61" s="2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>24</v>
@@ -3730,113 +3748,113 @@
         <v>23</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="20.25">
       <c r="A62" s="2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="20.25">
       <c r="A63" s="2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="I63" s="12">
         <v>13835</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="20.25">
@@ -10363,179 +10381,179 @@
         <v>10</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
@@ -14483,8 +14501,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="5" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="15.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="5" width="13.147857142857141" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="5" width="14.005" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="5" width="47.71928571428572" customWidth="1" bestFit="1"/>
@@ -14494,7 +14512,7 @@
     <col min="10" max="10" style="5" width="79.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="23.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -14526,7 +14544,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -14558,7 +14576,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -14590,7 +14608,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -14622,19 +14640,39 @@
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+      <c r="A5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -14646,7 +14684,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -14658,7 +14696,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -14670,7 +14708,7 @@
       <c r="I8" s="8"/>
       <c r="J8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>

--- a/Copy of SneakerPark Templates.xlsx
+++ b/Copy of SneakerPark Templates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Data Dictionary"/>
@@ -131,7 +131,7 @@
     <t>Some records have total amount set to zero</t>
   </si>
   <si>
-    <t>totalamount = 0</t>
+    <t>orderid = 29692</t>
   </si>
   <si>
     <t>Total amount of an order should not be zero</t>
@@ -152,7 +152,7 @@
     <t>Some records have no value for the shipping address</t>
   </si>
   <si>
-    <t>orderid = 29626</t>
+    <t>orderid = 13354</t>
   </si>
   <si>
     <t>Address for an order should not be empty</t>
@@ -179,7 +179,7 @@
     <t>Data for order shipment is stored as a date, while the  order date column in in the table 'op.orders' stores data as a timestamp without time zone. This can be problematic in the future, if one wants to catch up and see how an order shipment failed and in which time the error has happened.</t>
   </si>
   <si>
-    <t>date = 2020-11-09</t>
+    <t>shipmentid = 797095</t>
   </si>
   <si>
     <t>Make two columns use the same data format</t>
@@ -221,7 +221,7 @@
     <t>Internal</t>
   </si>
   <si>
-    <t>John Smith</t>
+    <t>Jessica</t>
   </si>
   <si>
     <t>items</t>
@@ -10364,7 +10364,7 @@
   </sheetPr>
   <dimension ref="A1:F500"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14496,7 +14496,7 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Copy of SneakerPark Templates.xlsx
+++ b/Copy of SneakerPark Templates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Data Dictionary"/>
@@ -10364,7 +10364,7 @@
   </sheetPr>
   <dimension ref="A1:F500"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14496,7 +14496,7 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
